--- a/大数据库/数据库分银行/工商银行.xlsx
+++ b/大数据库/数据库分银行/工商银行.xlsx
@@ -13,7 +13,6 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -7137,9 +7136,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7669,6 +7665,9 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -15423,669 +15422,20 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="财务摘要"/>
-      <sheetName val="一张图"/>
-      <sheetName val="投资类资产"/>
-      <sheetName val="收入拆分 "/>
-      <sheetName val="利润表(单季)"/>
-      <sheetName val="利润表"/>
-      <sheetName val="利润分解"/>
-      <sheetName val="资本充足情况"/>
-      <sheetName val="资产负债结构"/>
-      <sheetName val="贷款结构及质量"/>
-      <sheetName val="不良生成率"/>
-      <sheetName val="存款结构"/>
-      <sheetName val="净息差 "/>
-      <sheetName val="同业存单"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="19">
-          <cell r="L19">
-            <v>2012</v>
-          </cell>
-          <cell r="M19">
-            <v>2013</v>
-          </cell>
-          <cell r="N19">
-            <v>2014</v>
-          </cell>
-          <cell r="O19">
-            <v>2015</v>
-          </cell>
-          <cell r="P19">
-            <v>2016</v>
-          </cell>
-          <cell r="Q19" t="str">
-            <v>2017H</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="K20" t="str">
-            <v>营业收入</v>
-          </cell>
-          <cell r="L20">
-            <v>5369.45</v>
-          </cell>
-          <cell r="M20">
-            <v>5896.37</v>
-          </cell>
-          <cell r="N20">
-            <v>6588.92</v>
-          </cell>
-          <cell r="O20">
-            <v>6976.47</v>
-          </cell>
-          <cell r="P20">
-            <v>6758.91</v>
-          </cell>
-          <cell r="Q20">
-            <v>3621.51</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="K21" t="str">
-            <v>归母净利润</v>
-          </cell>
-          <cell r="L21">
-            <v>2385.3200000000002</v>
-          </cell>
-          <cell r="M21">
-            <v>2626.49</v>
-          </cell>
-          <cell r="N21">
-            <v>2758.11</v>
-          </cell>
-          <cell r="O21">
-            <v>2771.31</v>
-          </cell>
-          <cell r="P21">
-            <v>2782.49</v>
-          </cell>
-          <cell r="Q21">
-            <v>1529.95</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="K22" t="str">
-            <v>营业收入同比增速</v>
-          </cell>
-          <cell r="L22">
-            <v>0.12990000000000002</v>
-          </cell>
-          <cell r="M22">
-            <v>9.8100000000000007E-2</v>
-          </cell>
-          <cell r="N22">
-            <v>0.11749999999999999</v>
-          </cell>
-          <cell r="O22">
-            <v>5.8799999999999998E-2</v>
-          </cell>
-          <cell r="P22">
-            <v>-3.1200000000000002E-2</v>
-          </cell>
-          <cell r="Q22">
-            <v>-0.46418727279990413</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="K23" t="str">
-            <v>归母净利润同比增速</v>
-          </cell>
-          <cell r="L23">
-            <v>0.14529999999999998</v>
-          </cell>
-          <cell r="M23">
-            <v>0.1011</v>
-          </cell>
-          <cell r="N23">
-            <v>5.0099999999999999E-2</v>
-          </cell>
-          <cell r="O23">
-            <v>4.7999999999999996E-3</v>
-          </cell>
-          <cell r="P23">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-          <cell r="Q23">
-            <v>-0.99086902594146675</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="K24" t="str">
-            <v>净利息收入占比</v>
-          </cell>
-          <cell r="L24">
-            <v>0.77815791189041705</v>
-          </cell>
-          <cell r="M24">
-            <v>0.75187785027059029</v>
-          </cell>
-          <cell r="N24">
-            <v>0.74901804848138998</v>
-          </cell>
-          <cell r="O24">
-            <v>0.72797130927245435</v>
-          </cell>
-          <cell r="P24">
-            <v>0.6981096064306227</v>
-          </cell>
-          <cell r="Q24">
-            <v>0.69286568309903873</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="K25" t="str">
-            <v>非息收入占比</v>
-          </cell>
-          <cell r="L25">
-            <v>0.22184208810958295</v>
-          </cell>
-          <cell r="M25">
-            <v>0.24812214972940971</v>
-          </cell>
-          <cell r="N25">
-            <v>0.25098195151861002</v>
-          </cell>
-          <cell r="O25">
-            <v>0.27202869072754565</v>
-          </cell>
-          <cell r="P25">
-            <v>0.3018903935693773</v>
-          </cell>
-          <cell r="Q25">
-            <v>0.30713431690096127</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="15">
-          <cell r="K15">
-            <v>2012</v>
-          </cell>
-          <cell r="L15">
-            <v>2013</v>
-          </cell>
-          <cell r="M15">
-            <v>2014</v>
-          </cell>
-          <cell r="N15">
-            <v>2015</v>
-          </cell>
-          <cell r="O15">
-            <v>2016</v>
-          </cell>
-          <cell r="P15" t="str">
-            <v>2017Q1</v>
-          </cell>
-          <cell r="Q15" t="str">
-            <v>2017H</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="J16" t="str">
-            <v>贷款及垫款</v>
-          </cell>
-          <cell r="K16">
-            <v>0.48929328601966338</v>
-          </cell>
-          <cell r="L16">
-            <v>0.51176350128704506</v>
-          </cell>
-          <cell r="M16">
-            <v>0.52250240454211616</v>
-          </cell>
-          <cell r="N16">
-            <v>0.52467030290259509</v>
-          </cell>
-          <cell r="O16">
-            <v>0.5289470037305386</v>
-          </cell>
-          <cell r="P16">
-            <v>0.53273768701915147</v>
-          </cell>
-          <cell r="Q16">
-            <v>0.53105634441515082</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="J17" t="str">
-            <v>同业资产</v>
-          </cell>
-          <cell r="K17">
-            <v>6.7324956703021077E-2</v>
-          </cell>
-          <cell r="L17">
-            <v>5.5497450225587067E-2</v>
-          </cell>
-          <cell r="M17">
-            <v>6.0710376195423646E-2</v>
-          </cell>
-          <cell r="N17">
-            <v>7.5648025329381918E-2</v>
-          </cell>
-          <cell r="O17">
-            <v>6.4344489734027441E-2</v>
-          </cell>
-          <cell r="P17">
-            <v>6.241778738158571E-2</v>
-          </cell>
-          <cell r="Q17">
-            <v>7.0466949851858071E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="J18" t="str">
-            <v>债券类投资</v>
-          </cell>
-          <cell r="K18">
-            <v>0.21201265495689631</v>
-          </cell>
-          <cell r="L18">
-            <v>0.21132299440229474</v>
-          </cell>
-          <cell r="M18">
-            <v>0.19900608215846002</v>
-          </cell>
-          <cell r="N18">
-            <v>0.20971932184830283</v>
-          </cell>
-          <cell r="O18">
-            <v>0.21501209851240391</v>
-          </cell>
-          <cell r="P18">
-            <v>0.2110159608520977</v>
-          </cell>
-          <cell r="Q18">
-            <v>0.20483505438533739</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="J19" t="str">
-            <v>应收款项类投资</v>
-          </cell>
-          <cell r="K19">
-            <v>2.0790701654186585E-2</v>
-          </cell>
-          <cell r="L19">
-            <v>1.7152566541732868E-2</v>
-          </cell>
-          <cell r="M19">
-            <v>1.6095669893085151E-2</v>
-          </cell>
-          <cell r="N19">
-            <v>1.5855312389406826E-2</v>
-          </cell>
-          <cell r="O19">
-            <v>1.207137594089471E-2</v>
-          </cell>
-          <cell r="P19">
-            <v>1.6447944295058615E-2</v>
-          </cell>
-          <cell r="Q19">
-            <v>1.347579290246635E-2</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="K42">
-            <v>2012</v>
-          </cell>
-          <cell r="L42">
-            <v>2013</v>
-          </cell>
-          <cell r="M42">
-            <v>2014</v>
-          </cell>
-          <cell r="N42">
-            <v>2015</v>
-          </cell>
-          <cell r="O42">
-            <v>2016</v>
-          </cell>
-          <cell r="P42" t="str">
-            <v>2017Q1</v>
-          </cell>
-          <cell r="Q42" t="str">
-            <v>2017H</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="J43" t="str">
-            <v>存款</v>
-          </cell>
-          <cell r="K43">
-            <v>0.83118747090093581</v>
-          </cell>
-          <cell r="L43">
-            <v>0.82887836352134159</v>
-          </cell>
-          <cell r="M43">
-            <v>0.81564972962067317</v>
-          </cell>
-          <cell r="N43">
-            <v>0.79777209963653251</v>
-          </cell>
-          <cell r="O43">
-            <v>0.80453240375946999</v>
-          </cell>
-          <cell r="P43">
-            <v>0.81211887244796743</v>
-          </cell>
-          <cell r="Q43">
-            <v>0.80998327670612769</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="J44" t="str">
-            <v>同业负债</v>
-          </cell>
-          <cell r="K44">
-            <v>0.10506850411709494</v>
-          </cell>
-          <cell r="L44">
-            <v>8.8924162419471681E-2</v>
-          </cell>
-          <cell r="M44">
-            <v>0.10067799181959465</v>
-          </cell>
-          <cell r="N44">
-            <v>0.12754263860901183</v>
-          </cell>
-          <cell r="O44">
-            <v>0.11762470672864749</v>
-          </cell>
-          <cell r="P44">
-            <v>0.11133656591337739</v>
-          </cell>
-          <cell r="Q44">
-            <v>0.10632909732197349</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="J45" t="str">
-            <v>应付债券</v>
-          </cell>
-          <cell r="K45">
-            <v>1.4145815967312302E-2</v>
-          </cell>
-          <cell r="L45">
-            <v>1.4344002187389753E-2</v>
-          </cell>
-          <cell r="M45">
-            <v>1.4659211732990002E-2</v>
-          </cell>
-          <cell r="N45">
-            <v>1.5023669891820185E-2</v>
-          </cell>
-          <cell r="O45">
-            <v>1.6155233443139051E-2</v>
-          </cell>
-          <cell r="P45">
-            <v>1.6385370668765241E-2</v>
-          </cell>
-          <cell r="Q45">
-            <v>1.7587563510787954E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="3">
-          <cell r="K3" t="str">
-            <v>不良率</v>
-          </cell>
-          <cell r="L3">
-            <v>8.4708778998629219E-3</v>
-          </cell>
-          <cell r="M3">
-            <v>9.4421959905966052E-3</v>
-          </cell>
-          <cell r="N3">
-            <v>1.1290881799213176E-2</v>
-          </cell>
-          <cell r="O3">
-            <v>1.5043240580733209E-2</v>
-          </cell>
-          <cell r="P3">
-            <v>1.6221451949421782E-2</v>
-          </cell>
-          <cell r="Q3">
-            <v>1.5655086154106448E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="K4" t="str">
-            <v>关注类贷款占比</v>
-          </cell>
-          <cell r="L4">
-            <v>2.5847224096435906E-2</v>
-          </cell>
-          <cell r="M4">
-            <v>1.9769663993717629E-2</v>
-          </cell>
-          <cell r="N4">
-            <v>2.9001850207471553E-2</v>
-          </cell>
-          <cell r="O4">
-            <v>4.3616163149918057E-2</v>
-          </cell>
-          <cell r="P4">
-            <v>4.4728336383840321E-2</v>
-          </cell>
-          <cell r="Q4">
-            <v>3.9027228579100008E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5" t="str">
-            <v>逾期贷款占比</v>
-          </cell>
-          <cell r="L5">
-            <v>1.4273784225981552E-2</v>
-          </cell>
-          <cell r="M5">
-            <v>1.3467643932792695E-2</v>
-          </cell>
-          <cell r="N5">
-            <v>1.9097739764931784E-2</v>
-          </cell>
-          <cell r="O5">
-            <v>2.7879410726104219E-2</v>
-          </cell>
-          <cell r="P5">
-            <v>2.6509235078670604E-2</v>
-          </cell>
-          <cell r="Q5">
-            <v>2.2257177657808082E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6" t="str">
-            <v>逾期3个月以上贷款占比</v>
-          </cell>
-          <cell r="L6">
-            <v>7.0532908238952483E-3</v>
-          </cell>
-          <cell r="M6">
-            <v>8.0387012221067259E-3</v>
-          </cell>
-          <cell r="N6">
-            <v>1.0444816140563893E-2</v>
-          </cell>
-          <cell r="O6">
-            <v>1.3641971242889534E-2</v>
-          </cell>
-          <cell r="P6">
-            <v>1.4935613087571071E-2</v>
-          </cell>
-          <cell r="Q6">
-            <v>1.4161783407059716E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="L13">
-            <v>2012</v>
-          </cell>
-          <cell r="M13">
-            <v>2013</v>
-          </cell>
-          <cell r="N13">
-            <v>2014</v>
-          </cell>
-          <cell r="O13">
-            <v>2015</v>
-          </cell>
-          <cell r="P13">
-            <v>2016</v>
-          </cell>
-          <cell r="Q13" t="str">
-            <v>2017H</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="K14" t="str">
-            <v>公司贷款占比</v>
-          </cell>
-          <cell r="L14">
-            <v>0.71930935339400792</v>
-          </cell>
-          <cell r="M14">
-            <v>0.71016422078022856</v>
-          </cell>
-          <cell r="N14">
-            <v>0.69040118603368605</v>
-          </cell>
-          <cell r="O14">
-            <v>0.65945233346288501</v>
-          </cell>
-          <cell r="P14">
-            <v>0.62348012682388987</v>
-          </cell>
-          <cell r="Q14">
-            <v>0.64385472311984737</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="K15" t="str">
-            <v>个人贷款占比</v>
-          </cell>
-          <cell r="L15">
-            <v>0.25978907485632163</v>
-          </cell>
-          <cell r="M15">
-            <v>0.2748939921030995</v>
-          </cell>
-          <cell r="N15">
-            <v>0.27783176470940335</v>
-          </cell>
-          <cell r="O15">
-            <v>0.29680077858352305</v>
-          </cell>
-          <cell r="P15">
-            <v>0.32137692364603215</v>
-          </cell>
-          <cell r="Q15">
-            <v>0.32995968746080767</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="K16" t="str">
-            <v>票据贴现</v>
-          </cell>
-          <cell r="L16">
-            <v>2.0901571749670479E-2</v>
-          </cell>
-          <cell r="M16">
-            <v>1.4941787116671875E-2</v>
-          </cell>
-          <cell r="N16">
-            <v>3.1767049256910568E-2</v>
-          </cell>
-          <cell r="O16">
-            <v>4.374688795359203E-2</v>
-          </cell>
-          <cell r="P16">
-            <v>5.5142949530077937E-2</v>
-          </cell>
-          <cell r="Q16">
-            <v>2.6185589419344957E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
-        <row r="1">
-          <cell r="B1">
-            <v>2014</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>2015H</v>
-          </cell>
-          <cell r="D1">
-            <v>2015</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>2016H</v>
-          </cell>
-          <cell r="F1">
-            <v>2016</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>2017Q1</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>2017H</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>净息差</v>
-          </cell>
-          <cell r="B2">
-            <v>2.6599999999999999E-2</v>
-          </cell>
-          <cell r="C2">
-            <v>2.53E-2</v>
-          </cell>
-          <cell r="D2">
-            <v>2.47E-2</v>
-          </cell>
-          <cell r="E2">
-            <v>2.2100000000000002E-2</v>
-          </cell>
-          <cell r="F2">
-            <v>2.1600000000000001E-2</v>
-          </cell>
-          <cell r="G2">
-            <v>2.12E-2</v>
-          </cell>
-          <cell r="H2">
-            <v>2.1600000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="全国地方性债务"/>
+      <sheetName val="首页"/>
+      <sheetName val="辅助页"/>
+      <sheetName val="工商银行"/>
+      <sheetName val="光大银行"/>
+      <sheetName val="交通银行"/>
+      <sheetName val="平安银行"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -16609,10 +15959,10 @@
   <dimension ref="A1:AU985"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D540" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D918" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J554" sqref="J554"/>
+      <selection pane="bottomRight" activeCell="O922" sqref="O922"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -50226,7 +49576,7 @@
         <v>1587.12</v>
       </c>
     </row>
-    <row r="315" spans="2:45" ht="13.5">
+    <row r="315" spans="2:45">
       <c r="C315" s="227" t="s">
         <v>334</v>
       </c>
@@ -50238,7 +49588,7 @@
       <c r="J315" s="10"/>
       <c r="K315" s="9"/>
     </row>
-    <row r="316" spans="2:45" ht="13.5">
+    <row r="316" spans="2:45">
       <c r="C316" s="227" t="s">
         <v>335</v>
       </c>
@@ -55678,67 +55028,67 @@
     <row r="558" spans="2:46" s="32" customFormat="1" ht="13.5" thickBot="1"/>
     <row r="559" spans="2:46" ht="13.5" thickTop="1"/>
     <row r="560" spans="2:46">
-      <c r="B560" s="559" t="s">
+      <c r="B560" s="558" t="s">
         <v>627</v>
       </c>
-      <c r="H560" s="561">
+      <c r="H560" s="560">
         <v>2007</v>
       </c>
-      <c r="J560" s="562" t="s">
+      <c r="J560" s="561" t="s">
         <v>651</v>
       </c>
-      <c r="L560" s="562">
+      <c r="L560" s="561">
         <v>2008</v>
       </c>
-      <c r="N560" s="562" t="s">
+      <c r="N560" s="561" t="s">
         <v>652</v>
       </c>
-      <c r="P560" s="562">
+      <c r="P560" s="561">
         <v>2009</v>
       </c>
-      <c r="R560" s="562" t="s">
+      <c r="R560" s="561" t="s">
         <v>653</v>
       </c>
-      <c r="T560" s="562">
+      <c r="T560" s="561">
         <v>2010</v>
       </c>
-      <c r="V560" s="562" t="s">
+      <c r="V560" s="561" t="s">
         <v>654</v>
       </c>
-      <c r="X560" s="562">
+      <c r="X560" s="561">
         <v>2011</v>
       </c>
-      <c r="Z560" s="562" t="s">
+      <c r="Z560" s="561" t="s">
         <v>655</v>
       </c>
-      <c r="AB560" s="562">
+      <c r="AB560" s="561">
         <v>2012</v>
       </c>
-      <c r="AD560" s="562" t="s">
+      <c r="AD560" s="561" t="s">
         <v>656</v>
       </c>
-      <c r="AF560" s="562">
+      <c r="AF560" s="561">
         <v>2013</v>
       </c>
-      <c r="AH560" s="562" t="s">
+      <c r="AH560" s="561" t="s">
         <v>657</v>
       </c>
-      <c r="AJ560" s="562">
+      <c r="AJ560" s="561">
         <v>2014</v>
       </c>
-      <c r="AL560" s="562" t="s">
+      <c r="AL560" s="561" t="s">
         <v>593</v>
       </c>
-      <c r="AN560" s="562">
+      <c r="AN560" s="561">
         <v>2015</v>
       </c>
-      <c r="AP560" s="562" t="s">
+      <c r="AP560" s="561" t="s">
         <v>412</v>
       </c>
-      <c r="AR560" s="562">
+      <c r="AR560" s="561">
         <v>2016</v>
       </c>
-      <c r="AT560" s="563" t="s">
+      <c r="AT560" s="562" t="s">
         <v>372</v>
       </c>
     </row>
@@ -57153,7 +56503,7 @@
       </c>
     </row>
     <row r="583" spans="3:46">
-      <c r="C583" s="560" t="s">
+      <c r="C583" s="559" t="s">
         <v>650</v>
       </c>
       <c r="H583" s="29">
@@ -57230,544 +56580,544 @@
       </c>
     </row>
     <row r="739" spans="2:10">
-      <c r="D739" s="383" t="s">
+      <c r="D739" s="563" t="s">
         <v>493</v>
       </c>
-      <c r="E739" s="383"/>
-      <c r="F739" s="383"/>
-      <c r="G739" s="383"/>
-      <c r="H739" s="383"/>
-      <c r="I739" s="383"/>
-      <c r="J739" s="383"/>
+      <c r="E739" s="563"/>
+      <c r="F739" s="563"/>
+      <c r="G739" s="563"/>
+      <c r="H739" s="563"/>
+      <c r="I739" s="563"/>
+      <c r="J739" s="563"/>
     </row>
     <row r="740" spans="2:10">
-      <c r="D740" s="383"/>
-      <c r="E740" s="383"/>
-      <c r="F740" s="383"/>
-      <c r="G740" s="383"/>
-      <c r="H740" s="383"/>
-      <c r="I740" s="383"/>
-      <c r="J740" s="383"/>
+      <c r="D740" s="563"/>
+      <c r="E740" s="563"/>
+      <c r="F740" s="563"/>
+      <c r="G740" s="563"/>
+      <c r="H740" s="563"/>
+      <c r="I740" s="563"/>
+      <c r="J740" s="563"/>
     </row>
     <row r="741" spans="2:10">
-      <c r="D741" s="383"/>
-      <c r="E741" s="383"/>
-      <c r="F741" s="383"/>
-      <c r="G741" s="383"/>
-      <c r="H741" s="383"/>
-      <c r="I741" s="383"/>
-      <c r="J741" s="383"/>
+      <c r="D741" s="563"/>
+      <c r="E741" s="563"/>
+      <c r="F741" s="563"/>
+      <c r="G741" s="563"/>
+      <c r="H741" s="563"/>
+      <c r="I741" s="563"/>
+      <c r="J741" s="563"/>
     </row>
     <row r="742" spans="2:10" ht="16.5">
-      <c r="D742" s="384"/>
-      <c r="E742" s="384"/>
-      <c r="F742" s="384"/>
-      <c r="G742" s="384"/>
-      <c r="H742" s="384"/>
-      <c r="I742" s="385"/>
-      <c r="J742" s="385" t="s">
+      <c r="D742" s="383"/>
+      <c r="E742" s="383"/>
+      <c r="F742" s="383"/>
+      <c r="G742" s="383"/>
+      <c r="H742" s="383"/>
+      <c r="I742" s="384"/>
+      <c r="J742" s="384" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="743" spans="2:10" ht="13.9">
-      <c r="D743" s="387" t="s">
+      <c r="D743" s="386" t="s">
         <v>495</v>
       </c>
-      <c r="E743" s="387" t="s">
+      <c r="E743" s="386" t="s">
         <v>32</v>
       </c>
-      <c r="F743" s="387" t="s">
+      <c r="F743" s="386" t="s">
         <v>375</v>
       </c>
-      <c r="G743" s="388" t="s">
+      <c r="G743" s="387" t="s">
         <v>496</v>
       </c>
-      <c r="H743" s="387" t="s">
+      <c r="H743" s="386" t="s">
         <v>408</v>
       </c>
-      <c r="I743" s="387" t="s">
+      <c r="I743" s="386" t="s">
         <v>407</v>
       </c>
-      <c r="J743" s="387" t="s">
+      <c r="J743" s="386" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="744" spans="2:10" ht="13.9">
-      <c r="D744" s="386" t="s">
+      <c r="D744" s="385" t="s">
         <v>498</v>
       </c>
-      <c r="E744" s="389">
+      <c r="E744" s="388">
         <v>255140.46</v>
       </c>
-      <c r="F744" s="389">
+      <c r="F744" s="388">
         <v>241372.65</v>
       </c>
-      <c r="G744" s="390">
+      <c r="G744" s="389">
         <v>5.7039643886745317E-2</v>
       </c>
-      <c r="H744" s="389">
+      <c r="H744" s="388">
         <v>255140.46</v>
       </c>
-      <c r="I744" s="391">
+      <c r="I744" s="390">
         <v>249049.36</v>
       </c>
-      <c r="J744" s="392">
+      <c r="J744" s="391">
         <v>2.4457400733734147E-2</v>
       </c>
     </row>
     <row r="745" spans="2:10" ht="13.9">
-      <c r="D745" s="386" t="s">
+      <c r="D745" s="385" t="s">
         <v>499</v>
       </c>
-      <c r="E745" s="389">
+      <c r="E745" s="388">
         <v>138659.09</v>
       </c>
-      <c r="F745" s="389">
+      <c r="F745" s="388">
         <v>130568.46</v>
       </c>
-      <c r="G745" s="390">
+      <c r="G745" s="389">
         <v>6.1964658233695902E-2</v>
       </c>
-      <c r="H745" s="389">
+      <c r="H745" s="388">
         <v>138659.09</v>
       </c>
-      <c r="I745" s="391">
+      <c r="I745" s="390">
         <v>135724.44</v>
       </c>
-      <c r="J745" s="392">
+      <c r="J745" s="391">
         <v>2.1622119052397526E-2</v>
       </c>
     </row>
     <row r="746" spans="2:10" ht="13.9">
-      <c r="D746" s="386" t="s">
+      <c r="D746" s="385" t="s">
         <v>500</v>
       </c>
-      <c r="E746" s="389">
+      <c r="E746" s="388">
         <v>190211.71</v>
       </c>
-      <c r="F746" s="389">
+      <c r="F746" s="388">
         <v>178253.02</v>
       </c>
-      <c r="G746" s="390">
+      <c r="G746" s="389">
         <v>6.7088288321847322E-2</v>
       </c>
-      <c r="H746" s="389">
+      <c r="H746" s="388">
         <v>190211.71</v>
       </c>
-      <c r="I746" s="391">
+      <c r="I746" s="390">
         <v>185650.09</v>
       </c>
-      <c r="J746" s="392">
+      <c r="J746" s="391">
         <v>2.4571062691108869E-2</v>
       </c>
     </row>
     <row r="747" spans="2:10" ht="13.9">
-      <c r="D747" s="386"/>
-      <c r="E747" s="389"/>
-      <c r="F747" s="389"/>
-      <c r="G747" s="393"/>
-      <c r="H747" s="391"/>
-      <c r="I747" s="391"/>
-      <c r="J747" s="394"/>
+      <c r="D747" s="385"/>
+      <c r="E747" s="388"/>
+      <c r="F747" s="388"/>
+      <c r="G747" s="392"/>
+      <c r="H747" s="390"/>
+      <c r="I747" s="390"/>
+      <c r="J747" s="393"/>
     </row>
     <row r="748" spans="2:10" ht="13.9">
-      <c r="D748" s="395" t="s">
+      <c r="D748" s="394" t="s">
         <v>501</v>
       </c>
-      <c r="E748" s="396" t="s">
+      <c r="E748" s="395" t="s">
         <v>32</v>
       </c>
-      <c r="F748" s="396" t="s">
+      <c r="F748" s="395" t="s">
         <v>31</v>
       </c>
-      <c r="G748" s="397" t="s">
+      <c r="G748" s="396" t="s">
         <v>502</v>
       </c>
-      <c r="H748" s="398" t="s">
+      <c r="H748" s="397" t="s">
         <v>408</v>
       </c>
-      <c r="I748" s="398" t="s">
+      <c r="I748" s="397" t="s">
         <v>407</v>
       </c>
-      <c r="J748" s="399" t="s">
+      <c r="J748" s="398" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="749" spans="2:10" ht="13.9">
-      <c r="D749" s="400" t="s">
+      <c r="D749" s="399" t="s">
         <v>503</v>
       </c>
-      <c r="E749" s="389">
+      <c r="E749" s="388">
         <v>2509.2199999999998</v>
       </c>
-      <c r="F749" s="389">
+      <c r="F749" s="388">
         <v>2342.8000000000002</v>
       </c>
-      <c r="G749" s="390">
+      <c r="G749" s="389">
         <v>7.1034659381935983E-2</v>
       </c>
-      <c r="H749" s="391">
+      <c r="H749" s="390">
         <v>1289.5199999999998</v>
       </c>
-      <c r="I749" s="391">
+      <c r="I749" s="390">
         <v>1219.7</v>
       </c>
-      <c r="J749" s="392">
+      <c r="J749" s="391">
         <v>5.7243584487988608E-2</v>
       </c>
     </row>
     <row r="750" spans="2:10" ht="13.9">
-      <c r="D750" s="386" t="s">
+      <c r="D750" s="385" t="s">
         <v>395</v>
       </c>
-      <c r="E750" s="389">
+      <c r="E750" s="388">
         <v>3621.51</v>
       </c>
-      <c r="F750" s="389">
+      <c r="F750" s="388">
         <v>3576.7</v>
       </c>
-      <c r="G750" s="390">
+      <c r="G750" s="389">
         <v>1.2528308217071737E-2</v>
       </c>
-      <c r="H750" s="391">
+      <c r="H750" s="390">
         <v>1726.2600000000002</v>
       </c>
-      <c r="I750" s="391">
+      <c r="I750" s="390">
         <v>1895.25</v>
       </c>
-      <c r="J750" s="392">
+      <c r="J750" s="391">
         <v>-8.9165017807676938E-2</v>
       </c>
     </row>
     <row r="751" spans="2:10" ht="13.9">
-      <c r="D751" s="386" t="s">
+      <c r="D751" s="385" t="s">
         <v>504</v>
       </c>
-      <c r="E751" s="389">
+      <c r="E751" s="388">
         <v>613.42999999999995</v>
       </c>
-      <c r="F751" s="389">
+      <c r="F751" s="388">
         <v>444.33</v>
       </c>
-      <c r="G751" s="390">
+      <c r="G751" s="389">
         <v>0.38057299754686835</v>
       </c>
-      <c r="H751" s="391">
+      <c r="H751" s="390">
         <v>298.37999999999994</v>
       </c>
-      <c r="I751" s="391">
+      <c r="I751" s="390">
         <v>315.05</v>
       </c>
-      <c r="J751" s="392">
+      <c r="J751" s="391">
         <v>-5.2912236152991787E-2</v>
       </c>
     </row>
     <row r="752" spans="2:10" ht="13.9">
-      <c r="D752" s="386" t="s">
+      <c r="D752" s="385" t="s">
         <v>505</v>
       </c>
-      <c r="E752" s="389">
+      <c r="E752" s="388">
         <v>2578.41</v>
       </c>
-      <c r="F752" s="389">
+      <c r="F752" s="388">
         <v>2395.08</v>
       </c>
-      <c r="G752" s="390">
+      <c r="G752" s="389">
         <v>7.6544416052908515E-2</v>
       </c>
-      <c r="H752" s="391">
+      <c r="H752" s="390">
         <v>1275.3999999999999</v>
       </c>
-      <c r="I752" s="391">
+      <c r="I752" s="390">
         <v>1303.01</v>
       </c>
-      <c r="J752" s="392">
+      <c r="J752" s="391">
         <v>-2.1189399927859398E-2</v>
       </c>
     </row>
     <row r="753" spans="4:10" ht="13.9">
-      <c r="D753" s="386" t="s">
+      <c r="D753" s="385" t="s">
         <v>506</v>
       </c>
-      <c r="E753" s="389">
+      <c r="E753" s="388">
         <v>1529.95</v>
       </c>
-      <c r="F753" s="389">
+      <c r="F753" s="388">
         <v>1502.17</v>
       </c>
-      <c r="G753" s="390">
+      <c r="G753" s="389">
         <v>1.8493246436821487E-2</v>
       </c>
-      <c r="H753" s="391">
+      <c r="H753" s="390">
         <v>772.09</v>
       </c>
-      <c r="I753" s="391">
+      <c r="I753" s="390">
         <v>757.86</v>
       </c>
-      <c r="J753" s="392">
+      <c r="J753" s="391">
         <v>1.8776555036550402E-2</v>
       </c>
     </row>
     <row r="754" spans="4:10" ht="13.9">
-      <c r="D754" s="386"/>
-      <c r="E754" s="386"/>
-      <c r="F754" s="386"/>
-      <c r="G754" s="386"/>
-      <c r="H754" s="386"/>
-      <c r="I754" s="386" t="s">
+      <c r="D754" s="385"/>
+      <c r="E754" s="385"/>
+      <c r="F754" s="385"/>
+      <c r="G754" s="385"/>
+      <c r="H754" s="385"/>
+      <c r="I754" s="385" t="s">
         <v>507</v>
       </c>
-      <c r="J754" s="386"/>
+      <c r="J754" s="385"/>
     </row>
     <row r="755" spans="4:10" ht="13.9">
-      <c r="D755" s="387" t="s">
+      <c r="D755" s="386" t="s">
         <v>508</v>
       </c>
-      <c r="E755" s="387" t="s">
+      <c r="E755" s="386" t="s">
         <v>32</v>
       </c>
-      <c r="F755" s="387" t="s">
+      <c r="F755" s="386" t="s">
         <v>375</v>
       </c>
-      <c r="G755" s="387" t="s">
+      <c r="G755" s="386" t="s">
         <v>496</v>
       </c>
-      <c r="H755" s="387" t="s">
+      <c r="H755" s="386" t="s">
         <v>408</v>
       </c>
-      <c r="I755" s="387" t="s">
+      <c r="I755" s="386" t="s">
         <v>407</v>
       </c>
-      <c r="J755" s="387" t="s">
+      <c r="J755" s="386" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="756" spans="4:10" ht="13.9">
-      <c r="D756" s="386" t="s">
+      <c r="D756" s="385" t="s">
         <v>510</v>
       </c>
-      <c r="E756" s="392">
+      <c r="E756" s="391">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="F756" s="401">
+      <c r="F756" s="400">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="G756" s="401">
-        <v>0</v>
-      </c>
-      <c r="H756" s="401">
+      <c r="G756" s="400">
+        <v>0</v>
+      </c>
+      <c r="H756" s="400">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="I756" s="402">
+      <c r="I756" s="401">
         <v>2.12E-2</v>
       </c>
-      <c r="J756" s="401">
+      <c r="J756" s="400">
         <v>4.0000000000000105E-4</v>
       </c>
     </row>
     <row r="757" spans="4:10" ht="13.9">
-      <c r="D757" s="386" t="s">
+      <c r="D757" s="385" t="s">
         <v>511</v>
       </c>
-      <c r="E757" s="401">
+      <c r="E757" s="400">
         <v>0.21010000000000001</v>
       </c>
-      <c r="F757" s="401">
+      <c r="F757" s="400">
         <v>0.25914829462147004</v>
       </c>
-      <c r="G757" s="401">
+      <c r="G757" s="400">
         <v>-4.9048294621470034E-2</v>
       </c>
-      <c r="H757" s="401">
+      <c r="H757" s="400">
         <v>0.21010000000000001</v>
       </c>
-      <c r="I757" s="403">
+      <c r="I757" s="402">
         <v>0.19315657564965044</v>
       </c>
-      <c r="J757" s="403">
+      <c r="J757" s="402">
         <v>1.6943424350349567E-2</v>
       </c>
     </row>
     <row r="758" spans="4:10" ht="13.9">
-      <c r="D758" s="386"/>
-      <c r="E758" s="386"/>
-      <c r="F758" s="386"/>
-      <c r="G758" s="386"/>
-      <c r="H758" s="386"/>
-      <c r="I758" s="401"/>
-      <c r="J758" s="386"/>
+      <c r="D758" s="385"/>
+      <c r="E758" s="385"/>
+      <c r="F758" s="385"/>
+      <c r="G758" s="385"/>
+      <c r="H758" s="385"/>
+      <c r="I758" s="400"/>
+      <c r="J758" s="385"/>
     </row>
     <row r="759" spans="4:10" ht="13.9">
-      <c r="D759" s="395" t="s">
+      <c r="D759" s="394" t="s">
         <v>512</v>
       </c>
-      <c r="E759" s="387" t="s">
+      <c r="E759" s="386" t="s">
         <v>32</v>
       </c>
-      <c r="F759" s="387" t="s">
+      <c r="F759" s="386" t="s">
         <v>375</v>
       </c>
-      <c r="G759" s="387" t="s">
+      <c r="G759" s="386" t="s">
         <v>496</v>
       </c>
-      <c r="H759" s="387" t="s">
+      <c r="H759" s="386" t="s">
         <v>408</v>
       </c>
-      <c r="I759" s="387" t="s">
+      <c r="I759" s="386" t="s">
         <v>407</v>
       </c>
-      <c r="J759" s="387" t="s">
+      <c r="J759" s="386" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="760" spans="4:10" ht="13.9">
-      <c r="D760" s="386" t="s">
+      <c r="D760" s="385" t="s">
         <v>513</v>
       </c>
-      <c r="E760" s="404">
+      <c r="E760" s="403">
         <v>52.71</v>
       </c>
-      <c r="F760" s="404">
+      <c r="F760" s="403">
         <v>154.98000000000025</v>
       </c>
-      <c r="G760" s="405">
+      <c r="G760" s="404">
         <v>-102.27000000000024</v>
       </c>
-      <c r="H760" s="404">
+      <c r="H760" s="403">
         <v>17.87000000000031</v>
       </c>
-      <c r="I760" s="404">
+      <c r="I760" s="403">
         <v>34.839999999999691</v>
       </c>
-      <c r="J760" s="405">
+      <c r="J760" s="404">
         <v>-16.969999999999381</v>
       </c>
     </row>
     <row r="761" spans="4:10" ht="13.9">
-      <c r="D761" s="400" t="s">
+      <c r="D761" s="399" t="s">
         <v>514</v>
       </c>
-      <c r="E761" s="401">
+      <c r="E761" s="400">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="F761" s="401">
+      <c r="F761" s="400">
         <v>1.6221451949421782E-2</v>
       </c>
-      <c r="G761" s="406">
+      <c r="G761" s="405">
         <v>-5.2145194942178341E-4</v>
       </c>
-      <c r="H761" s="401">
+      <c r="H761" s="400">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="I761" s="402">
+      <c r="I761" s="401">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="J761" s="406">
+      <c r="J761" s="405">
         <v>-2.0000000000000226E-4</v>
       </c>
     </row>
     <row r="762" spans="4:10" ht="13.9">
-      <c r="D762" s="386" t="s">
+      <c r="D762" s="385" t="s">
         <v>515</v>
       </c>
-      <c r="E762" s="401">
+      <c r="E762" s="400">
         <v>2.23E-2</v>
       </c>
-      <c r="F762" s="401">
+      <c r="F762" s="400">
         <v>2.6509235078670604E-2</v>
       </c>
-      <c r="G762" s="401">
+      <c r="G762" s="400">
         <v>-4.2092350786706034E-3</v>
       </c>
-      <c r="H762" s="401"/>
-      <c r="I762" s="401"/>
-      <c r="J762" s="401"/>
+      <c r="H762" s="400"/>
+      <c r="I762" s="400"/>
+      <c r="J762" s="400"/>
     </row>
     <row r="763" spans="4:10" ht="13.9">
-      <c r="D763" s="400" t="s">
+      <c r="D763" s="399" t="s">
         <v>516</v>
       </c>
-      <c r="E763" s="401">
+      <c r="E763" s="400">
         <v>1.4581</v>
       </c>
-      <c r="F763" s="402">
+      <c r="F763" s="401">
         <v>1.3669</v>
       </c>
-      <c r="G763" s="401">
+      <c r="G763" s="400">
         <v>9.1199999999999948E-2</v>
       </c>
-      <c r="H763" s="401">
+      <c r="H763" s="400">
         <v>1.4581</v>
       </c>
-      <c r="I763" s="402">
+      <c r="I763" s="401">
         <v>1.4151</v>
       </c>
-      <c r="J763" s="401">
+      <c r="J763" s="400">
         <v>4.2999999999999927E-2</v>
       </c>
     </row>
     <row r="764" spans="4:10" ht="13.9">
-      <c r="D764" s="386" t="s">
+      <c r="D764" s="385" t="s">
         <v>517</v>
       </c>
-      <c r="E764" s="401">
+      <c r="E764" s="400">
         <v>0.14460000000000001</v>
       </c>
-      <c r="F764" s="401">
+      <c r="F764" s="400">
         <v>0.14610000000000001</v>
       </c>
-      <c r="G764" s="401">
+      <c r="G764" s="400">
         <v>-1.5000000000000013E-3</v>
       </c>
-      <c r="H764" s="401">
+      <c r="H764" s="400">
         <v>0.14460000000000001</v>
       </c>
-      <c r="I764" s="401">
+      <c r="I764" s="400">
         <v>0.14660000000000001</v>
       </c>
-      <c r="J764" s="401">
+      <c r="J764" s="400">
         <v>-2.0000000000000018E-3</v>
       </c>
     </row>
     <row r="765" spans="4:10" ht="13.9">
-      <c r="D765" s="386"/>
-      <c r="E765" s="386"/>
-      <c r="F765" s="386"/>
-      <c r="G765" s="386"/>
-      <c r="H765" s="386"/>
-      <c r="I765" s="386"/>
-      <c r="J765" s="386"/>
+      <c r="D765" s="385"/>
+      <c r="E765" s="385"/>
+      <c r="F765" s="385"/>
+      <c r="G765" s="385"/>
+      <c r="H765" s="385"/>
+      <c r="I765" s="385"/>
+      <c r="J765" s="385"/>
     </row>
     <row r="766" spans="4:10" ht="13.9">
-      <c r="D766" s="386" t="s">
+      <c r="D766" s="385" t="s">
         <v>518</v>
       </c>
-      <c r="E766" s="386"/>
-      <c r="F766" s="386"/>
-      <c r="G766" s="386"/>
-      <c r="H766" s="386"/>
-      <c r="I766" s="386"/>
-      <c r="J766" s="386"/>
+      <c r="E766" s="385"/>
+      <c r="F766" s="385"/>
+      <c r="G766" s="385"/>
+      <c r="H766" s="385"/>
+      <c r="I766" s="385"/>
+      <c r="J766" s="385"/>
     </row>
     <row r="767" spans="4:10" ht="13.9">
-      <c r="D767" s="386" t="s">
+      <c r="D767" s="385" t="s">
         <v>519</v>
       </c>
-      <c r="E767" s="386"/>
-      <c r="F767" s="386"/>
-      <c r="G767" s="386"/>
-      <c r="H767" s="386"/>
-      <c r="I767" s="386"/>
-      <c r="J767" s="386"/>
+      <c r="E767" s="385"/>
+      <c r="F767" s="385"/>
+      <c r="G767" s="385"/>
+      <c r="H767" s="385"/>
+      <c r="I767" s="385"/>
+      <c r="J767" s="385"/>
     </row>
     <row r="769" spans="2:22" s="32" customFormat="1" ht="14.25" thickBot="1">
-      <c r="P769" s="407"/>
-      <c r="Q769" s="407"/>
-      <c r="R769" s="407"/>
-      <c r="S769" s="407"/>
-      <c r="T769" s="407"/>
-      <c r="U769" s="407"/>
-      <c r="V769" s="407"/>
+      <c r="P769" s="406"/>
+      <c r="Q769" s="406"/>
+      <c r="R769" s="406"/>
+      <c r="S769" s="406"/>
+      <c r="T769" s="406"/>
+      <c r="U769" s="406"/>
+      <c r="V769" s="406"/>
     </row>
     <row r="770" spans="2:22" ht="13.5" thickTop="1"/>
     <row r="771" spans="2:22" ht="13.5">
@@ -57776,451 +57126,451 @@
       </c>
     </row>
     <row r="772" spans="2:22">
-      <c r="D772" s="408" t="s">
+      <c r="D772" s="407" t="s">
         <v>521</v>
       </c>
-      <c r="E772" s="409">
+      <c r="E772" s="408">
         <v>2012</v>
       </c>
-      <c r="F772" s="409">
+      <c r="F772" s="408">
         <v>2013</v>
       </c>
-      <c r="G772" s="409">
+      <c r="G772" s="408">
         <v>2014</v>
       </c>
-      <c r="H772" s="410">
+      <c r="H772" s="409">
         <v>2015</v>
       </c>
-      <c r="I772" s="411" t="s">
+      <c r="I772" s="410" t="s">
         <v>31</v>
       </c>
-      <c r="J772" s="411">
+      <c r="J772" s="410">
         <v>2016</v>
       </c>
-      <c r="K772" s="411" t="s">
+      <c r="K772" s="410" t="s">
         <v>407</v>
       </c>
-      <c r="L772" s="411" t="s">
+      <c r="L772" s="410" t="s">
         <v>32</v>
       </c>
-      <c r="M772" s="411" t="s">
+      <c r="M772" s="410" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="773" spans="2:22">
-      <c r="D773" s="408" t="s">
+      <c r="D773" s="407" t="s">
         <v>395</v>
       </c>
-      <c r="E773" s="412">
+      <c r="E773" s="411">
         <v>5369.45</v>
       </c>
-      <c r="F773" s="412">
+      <c r="F773" s="411">
         <v>5896.37</v>
       </c>
-      <c r="G773" s="412">
+      <c r="G773" s="411">
         <v>6588.92</v>
       </c>
-      <c r="H773" s="413">
+      <c r="H773" s="412">
         <v>6976.47</v>
       </c>
-      <c r="I773" s="413">
+      <c r="I773" s="412">
         <v>3576.7</v>
       </c>
-      <c r="J773" s="413">
+      <c r="J773" s="412">
         <v>6758.91</v>
       </c>
-      <c r="K773" s="413">
+      <c r="K773" s="412">
         <v>1895.25</v>
       </c>
-      <c r="L773" s="413">
+      <c r="L773" s="412">
         <v>3621.51</v>
       </c>
-      <c r="M773" s="414">
+      <c r="M773" s="413">
         <v>1.2528308217071737E-2</v>
       </c>
     </row>
     <row r="774" spans="2:22">
-      <c r="D774" s="415" t="s">
+      <c r="D774" s="414" t="s">
         <v>503</v>
       </c>
-      <c r="E774" s="416">
+      <c r="E774" s="415">
         <v>4178.28</v>
       </c>
-      <c r="F774" s="416">
+      <c r="F774" s="415">
         <v>4433.3500000000004</v>
       </c>
-      <c r="G774" s="416">
+      <c r="G774" s="415">
         <v>4935.22</v>
       </c>
-      <c r="H774" s="417">
+      <c r="H774" s="416">
         <v>5078.67</v>
       </c>
-      <c r="I774" s="417">
+      <c r="I774" s="416">
         <v>2342.8000000000002</v>
       </c>
-      <c r="J774" s="417">
+      <c r="J774" s="416">
         <v>4718.46</v>
       </c>
-      <c r="K774" s="417">
+      <c r="K774" s="416">
         <v>1219.7</v>
       </c>
-      <c r="L774" s="417">
+      <c r="L774" s="416">
         <v>2509.2199999999998</v>
       </c>
-      <c r="M774" s="418">
+      <c r="M774" s="417">
         <v>7.1034659381935983E-2</v>
       </c>
     </row>
     <row r="775" spans="2:22">
-      <c r="D775" s="415" t="s">
+      <c r="D775" s="414" t="s">
         <v>523</v>
       </c>
-      <c r="E775" s="416">
+      <c r="E775" s="415">
         <v>1191.17</v>
       </c>
-      <c r="F775" s="416">
+      <c r="F775" s="415">
         <v>1463.0199999999995</v>
       </c>
-      <c r="G775" s="416">
+      <c r="G775" s="415">
         <v>1653.6999999999998</v>
       </c>
-      <c r="H775" s="417">
+      <c r="H775" s="416">
         <v>1897.8000000000002</v>
       </c>
-      <c r="I775" s="417">
+      <c r="I775" s="416">
         <v>1233.8999999999996</v>
       </c>
-      <c r="J775" s="417">
+      <c r="J775" s="416">
         <v>2040.4499999999998</v>
       </c>
-      <c r="K775" s="417">
+      <c r="K775" s="416">
         <v>675.55</v>
       </c>
-      <c r="L775" s="417">
+      <c r="L775" s="416">
         <v>1112.2900000000004</v>
       </c>
-      <c r="M775" s="418">
+      <c r="M775" s="417">
         <v>-9.8557419563983562E-2</v>
       </c>
     </row>
     <row r="776" spans="2:22">
-      <c r="D776" s="419" t="s">
+      <c r="D776" s="418" t="s">
         <v>434</v>
       </c>
-      <c r="E776" s="420">
+      <c r="E776" s="419">
         <v>1060.6400000000001</v>
       </c>
-      <c r="F776" s="420">
+      <c r="F776" s="419">
         <v>1223.26</v>
       </c>
-      <c r="G776" s="420">
+      <c r="G776" s="419">
         <v>1324.97</v>
       </c>
-      <c r="H776" s="421">
+      <c r="H776" s="420">
         <v>1433.91</v>
       </c>
-      <c r="I776" s="421">
+      <c r="I776" s="420">
         <v>817.15</v>
       </c>
-      <c r="J776" s="421">
+      <c r="J776" s="420">
         <v>1449.73</v>
       </c>
-      <c r="K776" s="421">
+      <c r="K776" s="420">
         <v>409.58</v>
       </c>
-      <c r="L776" s="421">
+      <c r="L776" s="420">
         <v>766.7</v>
       </c>
-      <c r="M776" s="422">
+      <c r="M776" s="421">
         <v>-6.1738970813192129E-2</v>
       </c>
     </row>
     <row r="777" spans="2:22">
-      <c r="D777" s="423" t="s">
+      <c r="D777" s="422" t="s">
         <v>524</v>
       </c>
-      <c r="E777" s="424">
+      <c r="E777" s="423">
         <v>1533.36</v>
       </c>
-      <c r="F777" s="424">
+      <c r="F777" s="423">
         <v>1652.8</v>
       </c>
-      <c r="G777" s="424">
+      <c r="G777" s="423">
         <v>1762.61</v>
       </c>
-      <c r="H777" s="425">
+      <c r="H777" s="424">
         <v>1778.23</v>
       </c>
-      <c r="I777" s="425">
+      <c r="I777" s="424">
         <v>769.38</v>
       </c>
-      <c r="J777" s="425">
+      <c r="J777" s="424">
         <v>1751.56</v>
       </c>
-      <c r="K777" s="425">
+      <c r="K777" s="424">
         <v>366.08</v>
       </c>
-      <c r="L777" s="425">
+      <c r="L777" s="424">
         <v>760.91</v>
       </c>
-      <c r="M777" s="426">
+      <c r="M777" s="425">
         <v>-1.1008864280329655E-2</v>
       </c>
     </row>
     <row r="778" spans="2:22">
-      <c r="D778" s="423" t="s">
+      <c r="D778" s="422" t="s">
         <v>506</v>
       </c>
-      <c r="E778" s="424">
+      <c r="E778" s="423">
         <v>2385.3200000000002</v>
       </c>
-      <c r="F778" s="424">
+      <c r="F778" s="423">
         <v>2626.49</v>
       </c>
-      <c r="G778" s="424">
+      <c r="G778" s="423">
         <v>2758.11</v>
       </c>
-      <c r="H778" s="425">
+      <c r="H778" s="424">
         <v>2771.31</v>
       </c>
-      <c r="I778" s="425">
+      <c r="I778" s="424">
         <v>1502.17</v>
       </c>
-      <c r="J778" s="425">
+      <c r="J778" s="424">
         <v>2782.49</v>
       </c>
-      <c r="K778" s="425">
+      <c r="K778" s="424">
         <v>757.86</v>
       </c>
-      <c r="L778" s="425">
+      <c r="L778" s="424">
         <v>1529.95</v>
       </c>
-      <c r="M778" s="427">
+      <c r="M778" s="426">
         <v>1.8493246436821487E-2</v>
       </c>
     </row>
     <row r="779" spans="2:22">
-      <c r="D779" s="428"/>
-      <c r="E779" s="429"/>
-      <c r="F779" s="429"/>
-      <c r="G779" s="429"/>
-      <c r="H779" s="429"/>
-      <c r="I779" s="429"/>
-      <c r="J779" s="429"/>
-      <c r="K779" s="429"/>
-      <c r="L779" s="429"/>
-      <c r="M779" s="429"/>
+      <c r="D779" s="427"/>
+      <c r="E779" s="428"/>
+      <c r="F779" s="428"/>
+      <c r="G779" s="428"/>
+      <c r="H779" s="428"/>
+      <c r="I779" s="428"/>
+      <c r="J779" s="428"/>
+      <c r="K779" s="428"/>
+      <c r="L779" s="428"/>
+      <c r="M779" s="428"/>
     </row>
     <row r="780" spans="2:22">
-      <c r="D780" s="428"/>
-      <c r="E780" s="429"/>
-      <c r="F780" s="429"/>
-      <c r="G780" s="429"/>
-      <c r="H780" s="429"/>
-      <c r="I780" s="429"/>
-      <c r="J780" s="429"/>
-      <c r="K780" s="429"/>
-      <c r="L780" s="429"/>
-      <c r="M780" s="429"/>
+      <c r="D780" s="427"/>
+      <c r="E780" s="428"/>
+      <c r="F780" s="428"/>
+      <c r="G780" s="428"/>
+      <c r="H780" s="428"/>
+      <c r="I780" s="428"/>
+      <c r="J780" s="428"/>
+      <c r="K780" s="428"/>
+      <c r="L780" s="428"/>
+      <c r="M780" s="428"/>
     </row>
     <row r="781" spans="2:22">
-      <c r="D781" s="423" t="s">
+      <c r="D781" s="422" t="s">
         <v>525</v>
       </c>
-      <c r="E781" s="410">
+      <c r="E781" s="409">
         <v>2012</v>
       </c>
-      <c r="F781" s="410">
+      <c r="F781" s="409">
         <v>2013</v>
       </c>
-      <c r="G781" s="410">
+      <c r="G781" s="409">
         <v>2014</v>
       </c>
-      <c r="H781" s="410">
+      <c r="H781" s="409">
         <v>2015</v>
       </c>
-      <c r="I781" s="410" t="s">
+      <c r="I781" s="409" t="s">
         <v>31</v>
       </c>
-      <c r="J781" s="410">
+      <c r="J781" s="409">
         <v>2016</v>
       </c>
-      <c r="K781" s="410" t="s">
+      <c r="K781" s="409" t="s">
         <v>407</v>
       </c>
-      <c r="L781" s="410" t="s">
+      <c r="L781" s="409" t="s">
         <v>32</v>
       </c>
-      <c r="M781" s="410" t="s">
+      <c r="M781" s="409" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="782" spans="2:22">
-      <c r="D782" s="430" t="s">
+      <c r="D782" s="429" t="s">
         <v>503</v>
       </c>
-      <c r="E782" s="414">
+      <c r="E782" s="413">
         <v>0.77815791189041705</v>
       </c>
-      <c r="F782" s="414">
+      <c r="F782" s="413">
         <v>0.75187785027059029</v>
       </c>
-      <c r="G782" s="414">
+      <c r="G782" s="413">
         <v>0.74901804848138998</v>
       </c>
-      <c r="H782" s="414">
+      <c r="H782" s="413">
         <v>0.72797130927245435</v>
       </c>
-      <c r="I782" s="414">
+      <c r="I782" s="413">
         <v>0.65501719462073982</v>
       </c>
-      <c r="J782" s="414">
+      <c r="J782" s="413">
         <v>0.6981096064306227</v>
       </c>
-      <c r="K782" s="414">
+      <c r="K782" s="413">
         <v>0.64355625906872449</v>
       </c>
-      <c r="L782" s="414">
+      <c r="L782" s="413">
         <v>0.69286568309903873</v>
       </c>
-      <c r="M782" s="414">
+      <c r="M782" s="413">
         <v>-5.2439233315839662E-3</v>
       </c>
     </row>
     <row r="783" spans="2:22">
-      <c r="D783" s="431" t="s">
+      <c r="D783" s="430" t="s">
         <v>523</v>
       </c>
-      <c r="E783" s="418">
+      <c r="E783" s="417">
         <v>0.22184208810958295</v>
       </c>
-      <c r="F783" s="418">
+      <c r="F783" s="417">
         <v>0.24812214972940971</v>
       </c>
-      <c r="G783" s="418">
+      <c r="G783" s="417">
         <v>0.25098195151861002</v>
       </c>
-      <c r="H783" s="418">
+      <c r="H783" s="417">
         <v>0.27202869072754565</v>
       </c>
-      <c r="I783" s="418">
+      <c r="I783" s="417">
         <v>0.34498280537926018</v>
       </c>
-      <c r="J783" s="418">
+      <c r="J783" s="417">
         <v>0.3018903935693773</v>
       </c>
-      <c r="K783" s="418">
+      <c r="K783" s="417">
         <v>0.35644374093127551</v>
       </c>
-      <c r="L783" s="418">
+      <c r="L783" s="417">
         <v>0.30713431690096127</v>
       </c>
-      <c r="M783" s="418">
+      <c r="M783" s="417">
         <v>5.2439233315839662E-3</v>
       </c>
     </row>
     <row r="784" spans="2:22">
-      <c r="D784" s="432" t="s">
+      <c r="D784" s="431" t="s">
         <v>434</v>
       </c>
-      <c r="E784" s="422">
+      <c r="E784" s="421">
         <v>0.19753233571408621</v>
       </c>
-      <c r="F784" s="422">
+      <c r="F784" s="421">
         <v>0.20745984393788042</v>
       </c>
-      <c r="G784" s="422">
+      <c r="G784" s="421">
         <v>0.20109061879640366</v>
       </c>
-      <c r="H784" s="422">
+      <c r="H784" s="421">
         <v>0.20553517753247702</v>
       </c>
-      <c r="I784" s="422">
+      <c r="I784" s="421">
         <v>0.22846478597589959</v>
       </c>
-      <c r="J784" s="422">
+      <c r="J784" s="421">
         <v>0.21449168578957259</v>
       </c>
-      <c r="K784" s="422">
+      <c r="K784" s="421">
         <v>0.21610869278459305</v>
       </c>
-      <c r="L784" s="422">
+      <c r="L784" s="421">
         <v>0.21170727127634606</v>
       </c>
-      <c r="M784" s="418">
+      <c r="M784" s="417">
         <v>-2.7844145132265297E-3</v>
       </c>
     </row>
     <row r="785" spans="4:13">
-      <c r="D785" s="419" t="s">
+      <c r="D785" s="418" t="s">
         <v>511</v>
       </c>
-      <c r="E785" s="422">
+      <c r="E785" s="421">
         <v>0.28557114788293025</v>
       </c>
-      <c r="F785" s="422">
+      <c r="F785" s="421">
         <v>0.28030805393827052</v>
       </c>
-      <c r="G785" s="422">
+      <c r="G785" s="421">
         <v>0.26751121579864379</v>
       </c>
-      <c r="H785" s="422">
+      <c r="H785" s="421">
         <v>0.25488965049659784</v>
       </c>
-      <c r="I785" s="422">
+      <c r="I785" s="421">
         <v>0.21510889926468532</v>
       </c>
-      <c r="J785" s="422">
+      <c r="J785" s="421">
         <v>0.25914829462147004</v>
       </c>
-      <c r="K785" s="422">
+      <c r="K785" s="421">
         <v>0.19315657564965044</v>
       </c>
-      <c r="L785" s="422">
+      <c r="L785" s="421">
         <v>0.21010849065721202</v>
       </c>
-      <c r="M785" s="427">
+      <c r="M785" s="426">
         <v>-4.9039803964258027E-2</v>
       </c>
     </row>
     <row r="786" spans="4:13">
-      <c r="D786" s="428"/>
-      <c r="E786" s="429"/>
-      <c r="F786" s="429"/>
-      <c r="G786" s="429"/>
-      <c r="H786" s="429"/>
-      <c r="I786" s="429"/>
-      <c r="J786" s="429"/>
-      <c r="K786" s="429"/>
-      <c r="L786" s="429"/>
-      <c r="M786" s="429"/>
+      <c r="D786" s="427"/>
+      <c r="E786" s="428"/>
+      <c r="F786" s="428"/>
+      <c r="G786" s="428"/>
+      <c r="H786" s="428"/>
+      <c r="I786" s="428"/>
+      <c r="J786" s="428"/>
+      <c r="K786" s="428"/>
+      <c r="L786" s="428"/>
+      <c r="M786" s="428"/>
     </row>
     <row r="787" spans="4:13">
-      <c r="D787" s="428"/>
-      <c r="E787" s="429"/>
-      <c r="F787" s="429"/>
-      <c r="G787" s="429"/>
-      <c r="H787" s="429"/>
-      <c r="I787" s="429"/>
-      <c r="J787" s="429"/>
-      <c r="K787" s="429"/>
-      <c r="L787" s="429"/>
-      <c r="M787" s="429"/>
+      <c r="D787" s="427"/>
+      <c r="E787" s="428"/>
+      <c r="F787" s="428"/>
+      <c r="G787" s="428"/>
+      <c r="H787" s="428"/>
+      <c r="I787" s="428"/>
+      <c r="J787" s="428"/>
+      <c r="K787" s="428"/>
+      <c r="L787" s="428"/>
+      <c r="M787" s="428"/>
     </row>
     <row r="788" spans="4:13">
-      <c r="D788" s="428"/>
-      <c r="E788" s="433"/>
-      <c r="F788" s="433"/>
-      <c r="G788" s="433"/>
-      <c r="H788" s="433"/>
-      <c r="I788" s="433"/>
-      <c r="J788" s="433"/>
-      <c r="K788" s="433"/>
-      <c r="L788" s="433"/>
-      <c r="M788" s="429"/>
+      <c r="D788" s="427"/>
+      <c r="E788" s="432"/>
+      <c r="F788" s="432"/>
+      <c r="G788" s="432"/>
+      <c r="H788" s="432"/>
+      <c r="I788" s="432"/>
+      <c r="J788" s="432"/>
+      <c r="K788" s="432"/>
+      <c r="L788" s="432"/>
+      <c r="M788" s="428"/>
     </row>
     <row r="789" spans="4:13">
-      <c r="D789" s="408"/>
+      <c r="D789" s="407"/>
       <c r="E789" s="358">
         <v>2012</v>
       </c>
@@ -58239,177 +57589,177 @@
       <c r="J789" s="358" t="s">
         <v>32</v>
       </c>
-      <c r="K789" s="428"/>
-      <c r="L789" s="434"/>
-      <c r="M789" s="429"/>
+      <c r="K789" s="427"/>
+      <c r="L789" s="433"/>
+      <c r="M789" s="428"/>
     </row>
     <row r="790" spans="4:13">
-      <c r="D790" s="408" t="s">
+      <c r="D790" s="407" t="s">
         <v>395</v>
       </c>
-      <c r="E790" s="435">
+      <c r="E790" s="434">
         <v>5369.45</v>
       </c>
-      <c r="F790" s="435">
+      <c r="F790" s="434">
         <v>5896.37</v>
       </c>
-      <c r="G790" s="435">
+      <c r="G790" s="434">
         <v>6588.92</v>
       </c>
-      <c r="H790" s="435">
+      <c r="H790" s="434">
         <v>6976.47</v>
       </c>
-      <c r="I790" s="435">
+      <c r="I790" s="434">
         <v>6758.91</v>
       </c>
-      <c r="J790" s="435">
+      <c r="J790" s="434">
         <v>3621.51</v>
       </c>
-      <c r="K790" s="428"/>
-      <c r="L790" s="434"/>
-      <c r="M790" s="429"/>
+      <c r="K790" s="427"/>
+      <c r="L790" s="433"/>
+      <c r="M790" s="428"/>
     </row>
     <row r="791" spans="4:13">
-      <c r="D791" s="419" t="s">
+      <c r="D791" s="418" t="s">
         <v>506</v>
       </c>
-      <c r="E791" s="436">
+      <c r="E791" s="435">
         <v>2385.3200000000002</v>
       </c>
-      <c r="F791" s="436">
+      <c r="F791" s="435">
         <v>2626.49</v>
       </c>
-      <c r="G791" s="436">
+      <c r="G791" s="435">
         <v>2758.11</v>
       </c>
-      <c r="H791" s="436">
+      <c r="H791" s="435">
         <v>2771.31</v>
       </c>
-      <c r="I791" s="436">
+      <c r="I791" s="435">
         <v>2782.49</v>
       </c>
-      <c r="J791" s="436">
+      <c r="J791" s="435">
         <v>1529.95</v>
       </c>
-      <c r="K791" s="428"/>
-      <c r="L791" s="428"/>
-      <c r="M791" s="429"/>
+      <c r="K791" s="427"/>
+      <c r="L791" s="427"/>
+      <c r="M791" s="428"/>
     </row>
     <row r="792" spans="4:13">
-      <c r="D792" s="415" t="s">
+      <c r="D792" s="414" t="s">
         <v>527</v>
       </c>
-      <c r="E792" s="418">
+      <c r="E792" s="417">
         <v>0.12990000000000002</v>
       </c>
-      <c r="F792" s="418">
+      <c r="F792" s="417">
         <v>9.8100000000000007E-2</v>
       </c>
-      <c r="G792" s="418">
+      <c r="G792" s="417">
         <v>0.11749999999999999</v>
       </c>
-      <c r="H792" s="418">
+      <c r="H792" s="417">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="I792" s="418">
+      <c r="I792" s="417">
         <v>-3.1200000000000002E-2</v>
       </c>
-      <c r="J792" s="418">
+      <c r="J792" s="417">
         <v>-0.46418727279990413</v>
       </c>
-      <c r="K792" s="428"/>
-      <c r="L792" s="428"/>
-      <c r="M792" s="428"/>
+      <c r="K792" s="427"/>
+      <c r="L792" s="427"/>
+      <c r="M792" s="427"/>
     </row>
     <row r="793" spans="4:13">
-      <c r="D793" s="419" t="s">
+      <c r="D793" s="418" t="s">
         <v>528</v>
       </c>
-      <c r="E793" s="422">
+      <c r="E793" s="421">
         <v>0.14529999999999998</v>
       </c>
-      <c r="F793" s="422">
+      <c r="F793" s="421">
         <v>0.1011</v>
       </c>
-      <c r="G793" s="422">
+      <c r="G793" s="421">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="H793" s="422">
+      <c r="H793" s="421">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="I793" s="422">
+      <c r="I793" s="421">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J793" s="422">
+      <c r="J793" s="421">
         <v>-0.99086902594146675</v>
       </c>
-      <c r="K793" s="428"/>
-      <c r="L793" s="428"/>
-      <c r="M793" s="428"/>
+      <c r="K793" s="427"/>
+      <c r="L793" s="427"/>
+      <c r="M793" s="427"/>
     </row>
     <row r="794" spans="4:13">
-      <c r="D794" s="430" t="s">
+      <c r="D794" s="429" t="s">
         <v>529</v>
       </c>
-      <c r="E794" s="437">
+      <c r="E794" s="436">
         <v>0.77815791189041705</v>
       </c>
-      <c r="F794" s="437">
+      <c r="F794" s="436">
         <v>0.75187785027059029</v>
       </c>
-      <c r="G794" s="437">
+      <c r="G794" s="436">
         <v>0.74901804848138998</v>
       </c>
-      <c r="H794" s="437">
+      <c r="H794" s="436">
         <v>0.72797130927245435</v>
       </c>
-      <c r="I794" s="437">
+      <c r="I794" s="436">
         <v>0.6981096064306227</v>
       </c>
-      <c r="J794" s="437">
+      <c r="J794" s="436">
         <v>0.69286568309903873</v>
       </c>
-      <c r="K794" s="428"/>
-      <c r="L794" s="428"/>
-      <c r="M794" s="428"/>
+      <c r="K794" s="427"/>
+      <c r="L794" s="427"/>
+      <c r="M794" s="427"/>
     </row>
     <row r="795" spans="4:13">
-      <c r="D795" s="432" t="s">
+      <c r="D795" s="431" t="s">
         <v>530</v>
       </c>
-      <c r="E795" s="438">
+      <c r="E795" s="437">
         <v>0.22184208810958295</v>
       </c>
-      <c r="F795" s="438">
+      <c r="F795" s="437">
         <v>0.24812214972940971</v>
       </c>
-      <c r="G795" s="438">
+      <c r="G795" s="437">
         <v>0.25098195151861002</v>
       </c>
-      <c r="H795" s="438">
+      <c r="H795" s="437">
         <v>0.27202869072754565</v>
       </c>
-      <c r="I795" s="438">
+      <c r="I795" s="437">
         <v>0.3018903935693773</v>
       </c>
-      <c r="J795" s="438">
+      <c r="J795" s="437">
         <v>0.30713431690096127</v>
       </c>
-      <c r="K795" s="428"/>
-      <c r="L795" s="428"/>
-      <c r="M795" s="428"/>
+      <c r="K795" s="427"/>
+      <c r="L795" s="427"/>
+      <c r="M795" s="427"/>
     </row>
     <row r="796" spans="4:13">
-      <c r="D796" s="428"/>
-      <c r="E796" s="428"/>
-      <c r="F796" s="428"/>
-      <c r="G796" s="428"/>
-      <c r="H796" s="428"/>
-      <c r="I796" s="428"/>
-      <c r="J796" s="428"/>
-      <c r="K796" s="428"/>
-      <c r="L796" s="428"/>
-      <c r="M796" s="428"/>
+      <c r="D796" s="427"/>
+      <c r="E796" s="427"/>
+      <c r="F796" s="427"/>
+      <c r="G796" s="427"/>
+      <c r="H796" s="427"/>
+      <c r="I796" s="427"/>
+      <c r="J796" s="427"/>
+      <c r="K796" s="427"/>
+      <c r="L796" s="427"/>
+      <c r="M796" s="427"/>
     </row>
     <row r="813" spans="2:2" s="32" customFormat="1" ht="13.5" thickBot="1"/>
     <row r="814" spans="2:2" ht="13.5" thickTop="1"/>
@@ -58419,23 +57769,23 @@
       </c>
     </row>
     <row r="817" spans="4:15">
-      <c r="D817" s="428" t="s">
+      <c r="D817" s="427" t="s">
         <v>521</v>
       </c>
-      <c r="E817" s="428"/>
-      <c r="F817" s="428"/>
-      <c r="G817" s="428"/>
-      <c r="H817" s="428"/>
-      <c r="I817" s="428"/>
-      <c r="J817" s="428"/>
-      <c r="K817" s="428"/>
-      <c r="L817" s="428"/>
-      <c r="M817" s="428"/>
-      <c r="N817" s="428"/>
-      <c r="O817" s="428"/>
+      <c r="E817" s="427"/>
+      <c r="F817" s="427"/>
+      <c r="G817" s="427"/>
+      <c r="H817" s="427"/>
+      <c r="I817" s="427"/>
+      <c r="J817" s="427"/>
+      <c r="K817" s="427"/>
+      <c r="L817" s="427"/>
+      <c r="M817" s="427"/>
+      <c r="N817" s="427"/>
+      <c r="O817" s="427"/>
     </row>
     <row r="818" spans="4:15">
-      <c r="D818" s="423" t="s">
+      <c r="D818" s="422" t="s">
         <v>532</v>
       </c>
       <c r="E818" s="365">
@@ -58459,86 +57809,86 @@
       <c r="K818" s="358" t="s">
         <v>32</v>
       </c>
-      <c r="L818" s="439" t="s">
+      <c r="L818" s="438" t="s">
         <v>533</v>
       </c>
-      <c r="M818" s="423" t="s">
+      <c r="M818" s="422" t="s">
         <v>534</v>
       </c>
-      <c r="N818" s="440" t="s">
+      <c r="N818" s="439" t="s">
         <v>535</v>
       </c>
-      <c r="O818" s="441" t="s">
+      <c r="O818" s="440" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="819" spans="4:15">
-      <c r="D819" s="408" t="s">
+      <c r="D819" s="407" t="s">
         <v>537</v>
       </c>
-      <c r="E819" s="442">
+      <c r="E819" s="441">
         <v>85832.89</v>
       </c>
-      <c r="F819" s="442">
+      <c r="F819" s="441">
         <v>96814.15</v>
       </c>
-      <c r="G819" s="442">
+      <c r="G819" s="441">
         <v>107687.5</v>
       </c>
-      <c r="H819" s="442">
+      <c r="H819" s="441">
         <v>116528.12</v>
       </c>
-      <c r="I819" s="442">
+      <c r="I819" s="441">
         <v>127673.34</v>
       </c>
-      <c r="J819" s="442">
+      <c r="J819" s="441">
         <v>132677.98000000001</v>
       </c>
-      <c r="K819" s="443">
+      <c r="K819" s="442">
         <v>135493.96</v>
       </c>
-      <c r="L819" s="444">
+      <c r="L819" s="443">
         <v>2815.9799999999814</v>
       </c>
-      <c r="M819" s="445">
+      <c r="M819" s="444">
         <v>7820.6199999999953</v>
       </c>
-      <c r="N819" s="446">
+      <c r="N819" s="445">
         <v>2.1224169979072505E-2</v>
       </c>
-      <c r="O819" s="447">
+      <c r="O819" s="446">
         <v>6.1254918215502219E-2</v>
       </c>
     </row>
     <row r="820" spans="4:15">
-      <c r="D820" s="415" t="s">
+      <c r="D820" s="414" t="s">
         <v>538</v>
       </c>
-      <c r="E820" s="448">
+      <c r="E820" s="447">
         <v>11810.29</v>
       </c>
-      <c r="F820" s="448">
+      <c r="F820" s="447">
         <v>10498.87</v>
       </c>
-      <c r="G820" s="448">
+      <c r="G820" s="447">
         <v>12512.380000000001</v>
       </c>
-      <c r="H820" s="448">
+      <c r="H820" s="447">
         <v>16801.260000000002</v>
       </c>
-      <c r="I820" s="448">
+      <c r="I820" s="447">
         <v>15531</v>
       </c>
-      <c r="J820" s="448">
+      <c r="J820" s="447">
         <v>15545.11</v>
       </c>
-      <c r="K820" s="449">
+      <c r="K820" s="448">
         <v>17978.97</v>
       </c>
-      <c r="L820" s="450">
+      <c r="L820" s="449">
         <v>2433.8600000000006</v>
       </c>
-      <c r="M820" s="451">
+      <c r="M820" s="450">
         <v>2447.9700000000012</v>
       </c>
       <c r="N820" s="359">
@@ -58549,34 +57899,34 @@
       </c>
     </row>
     <row r="821" spans="4:15">
-      <c r="D821" s="415" t="s">
+      <c r="D821" s="414" t="s">
         <v>539</v>
       </c>
-      <c r="E821" s="448">
+      <c r="E821" s="447">
         <v>37191.72</v>
       </c>
-      <c r="F821" s="448">
+      <c r="F821" s="447">
         <v>39977.56</v>
       </c>
-      <c r="G821" s="448">
+      <c r="G821" s="447">
         <v>41015.06</v>
       </c>
-      <c r="H821" s="448">
+      <c r="H821" s="447">
         <v>46578.2</v>
       </c>
-      <c r="I821" s="448">
+      <c r="I821" s="447">
         <v>51898.039999999994</v>
       </c>
-      <c r="J821" s="448">
+      <c r="J821" s="447">
         <v>52553.39</v>
       </c>
-      <c r="K821" s="449">
+      <c r="K821" s="448">
         <v>52261.71</v>
       </c>
-      <c r="L821" s="450">
+      <c r="L821" s="449">
         <v>-291.68000000000029</v>
       </c>
-      <c r="M821" s="451">
+      <c r="M821" s="450">
         <v>363.67000000000553</v>
       </c>
       <c r="N821" s="359">
@@ -58587,37 +57937,37 @@
       </c>
     </row>
     <row r="822" spans="4:15">
-      <c r="D822" s="419" t="s">
+      <c r="D822" s="418" t="s">
         <v>540</v>
       </c>
-      <c r="E822" s="452">
+      <c r="E822" s="451">
         <v>3647.15</v>
       </c>
-      <c r="F822" s="452">
+      <c r="F822" s="451">
         <v>3244.88</v>
       </c>
-      <c r="G822" s="452">
+      <c r="G822" s="451">
         <v>3317.31</v>
       </c>
-      <c r="H822" s="452">
+      <c r="H822" s="451">
         <v>3521.43</v>
       </c>
-      <c r="I822" s="452">
+      <c r="I822" s="451">
         <v>2913.7</v>
       </c>
-      <c r="J822" s="452">
+      <c r="J822" s="451">
         <v>4096.3500000000004</v>
       </c>
-      <c r="K822" s="453">
+      <c r="K822" s="452">
         <v>3438.22</v>
       </c>
-      <c r="L822" s="450">
+      <c r="L822" s="449">
         <v>-658.13000000000056</v>
       </c>
-      <c r="M822" s="451">
+      <c r="M822" s="450">
         <v>524.52</v>
       </c>
-      <c r="N822" s="454">
+      <c r="N822" s="453">
         <v>-0.16066254104263566</v>
       </c>
       <c r="O822" s="360">
@@ -58625,72 +57975,72 @@
       </c>
     </row>
     <row r="823" spans="4:15">
-      <c r="D823" s="423" t="s">
+      <c r="D823" s="422" t="s">
         <v>541</v>
       </c>
-      <c r="E823" s="455">
+      <c r="E823" s="454">
         <v>40838.870000000003</v>
       </c>
-      <c r="F823" s="455">
+      <c r="F823" s="454">
         <v>43222.439999999995</v>
       </c>
-      <c r="G823" s="455">
+      <c r="G823" s="454">
         <v>44332.369999999995</v>
       </c>
-      <c r="H823" s="455">
+      <c r="H823" s="454">
         <v>50099.63</v>
       </c>
-      <c r="I823" s="455">
+      <c r="I823" s="454">
         <v>54811.739999999991</v>
       </c>
-      <c r="J823" s="455">
+      <c r="J823" s="454">
         <v>56649.74</v>
       </c>
-      <c r="K823" s="451">
+      <c r="K823" s="450">
         <v>55699.93</v>
       </c>
-      <c r="L823" s="456">
+      <c r="L823" s="455">
         <v>-949.80999999999767</v>
       </c>
-      <c r="M823" s="457">
+      <c r="M823" s="456">
         <v>888.1900000000096</v>
       </c>
-      <c r="N823" s="458">
+      <c r="N823" s="457">
         <v>-1.6766361151878129E-2</v>
       </c>
-      <c r="O823" s="459">
+      <c r="O823" s="458">
         <v>1.6204375194073473E-2</v>
       </c>
     </row>
     <row r="824" spans="4:15">
-      <c r="D824" s="430" t="s">
+      <c r="D824" s="429" t="s">
         <v>542</v>
       </c>
-      <c r="E824" s="442">
+      <c r="E824" s="441">
         <v>31749.43</v>
       </c>
-      <c r="F824" s="442">
+      <c r="F824" s="441">
         <v>32940.07</v>
       </c>
-      <c r="G824" s="442">
+      <c r="G824" s="441">
         <v>35236.22</v>
       </c>
-      <c r="H824" s="442">
+      <c r="H824" s="441">
         <v>30596.33</v>
       </c>
-      <c r="I824" s="442">
+      <c r="I824" s="441">
         <v>33507.879999999997</v>
       </c>
-      <c r="J824" s="442">
+      <c r="J824" s="441">
         <v>34378.300000000003</v>
       </c>
-      <c r="K824" s="443">
+      <c r="K824" s="442">
         <v>35427.730000000003</v>
       </c>
-      <c r="L824" s="443">
+      <c r="L824" s="442">
         <v>1049.4300000000003</v>
       </c>
-      <c r="M824" s="460">
+      <c r="M824" s="459">
         <v>1919.8500000000058</v>
       </c>
       <c r="N824" s="359">
@@ -58701,34 +58051,34 @@
       </c>
     </row>
     <row r="825" spans="4:15">
-      <c r="D825" s="431" t="s">
+      <c r="D825" s="430" t="s">
         <v>543</v>
       </c>
-      <c r="E825" s="448">
+      <c r="E825" s="447">
         <v>5190.6900000000005</v>
       </c>
-      <c r="F825" s="448">
+      <c r="F825" s="447">
         <v>5701.99</v>
       </c>
-      <c r="G825" s="448">
+      <c r="G825" s="447">
         <v>6331.0599999999995</v>
       </c>
-      <c r="H825" s="448">
+      <c r="H825" s="447">
         <v>8072.46</v>
       </c>
-      <c r="I825" s="448">
+      <c r="I825" s="447">
         <v>9848.6899999999987</v>
       </c>
-      <c r="J825" s="448">
+      <c r="J825" s="447">
         <v>9798.23</v>
       </c>
-      <c r="K825" s="449">
+      <c r="K825" s="448">
         <v>10539.869999999999</v>
       </c>
-      <c r="L825" s="453">
+      <c r="L825" s="452">
         <v>741.63999999999942</v>
       </c>
-      <c r="M825" s="461">
+      <c r="M825" s="460">
         <v>691.18000000000029</v>
       </c>
       <c r="N825" s="359">
@@ -58739,105 +58089,105 @@
       </c>
     </row>
     <row r="826" spans="4:15">
-      <c r="D826" s="423" t="s">
+      <c r="D826" s="422" t="s">
         <v>498</v>
       </c>
-      <c r="E826" s="462">
+      <c r="E826" s="461">
         <v>175422.16999999998</v>
       </c>
-      <c r="F826" s="462">
+      <c r="F826" s="461">
         <v>189177.52</v>
       </c>
-      <c r="G826" s="462">
+      <c r="G826" s="461">
         <v>206099.53</v>
       </c>
-      <c r="H826" s="462">
+      <c r="H826" s="461">
         <v>222097.80000000002</v>
       </c>
-      <c r="I826" s="462">
+      <c r="I826" s="461">
         <v>241372.65000000002</v>
       </c>
-      <c r="J826" s="462">
+      <c r="J826" s="461">
         <v>249049.36000000007</v>
       </c>
-      <c r="K826" s="456">
+      <c r="K826" s="455">
         <v>255140.46</v>
       </c>
-      <c r="L826" s="456">
+      <c r="L826" s="455">
         <v>6091.0999999999185</v>
       </c>
-      <c r="M826" s="457">
+      <c r="M826" s="456">
         <v>13767.809999999969</v>
       </c>
-      <c r="N826" s="463">
+      <c r="N826" s="462">
         <v>2.4457400733733703E-2</v>
       </c>
-      <c r="O826" s="459">
+      <c r="O826" s="458">
         <v>5.7039643886745095E-2</v>
       </c>
     </row>
     <row r="827" spans="4:15">
-      <c r="D827" s="428" t="s">
+      <c r="D827" s="427" t="s">
         <v>544</v>
       </c>
-      <c r="E827" s="448">
+      <c r="E827" s="447">
         <v>175422.17</v>
       </c>
-      <c r="F827" s="448">
+      <c r="F827" s="447">
         <v>189177.52</v>
       </c>
-      <c r="G827" s="448">
+      <c r="G827" s="447">
         <v>206099.53</v>
       </c>
-      <c r="H827" s="448">
+      <c r="H827" s="447">
         <v>222097.8</v>
       </c>
-      <c r="I827" s="448">
+      <c r="I827" s="447">
         <v>241372.65</v>
       </c>
-      <c r="J827" s="448">
+      <c r="J827" s="447">
         <v>249049.36</v>
       </c>
-      <c r="K827" s="448">
+      <c r="K827" s="447">
         <v>255140.46</v>
       </c>
-      <c r="L827" s="428"/>
-      <c r="M827" s="428"/>
-      <c r="N827" s="428"/>
-      <c r="O827" s="428"/>
+      <c r="L827" s="427"/>
+      <c r="M827" s="427"/>
+      <c r="N827" s="427"/>
+      <c r="O827" s="427"/>
     </row>
     <row r="828" spans="4:15">
-      <c r="D828" s="428"/>
-      <c r="E828" s="428"/>
-      <c r="F828" s="428"/>
-      <c r="G828" s="428"/>
-      <c r="H828" s="428"/>
-      <c r="I828" s="428"/>
-      <c r="J828" s="428"/>
-      <c r="K828" s="428"/>
-      <c r="L828" s="428"/>
-      <c r="M828" s="428"/>
-      <c r="N828" s="428"/>
-      <c r="O828" s="428"/>
+      <c r="D828" s="427"/>
+      <c r="E828" s="427"/>
+      <c r="F828" s="427"/>
+      <c r="G828" s="427"/>
+      <c r="H828" s="427"/>
+      <c r="I828" s="427"/>
+      <c r="J828" s="427"/>
+      <c r="K828" s="427"/>
+      <c r="L828" s="427"/>
+      <c r="M828" s="427"/>
+      <c r="N828" s="427"/>
+      <c r="O828" s="427"/>
     </row>
     <row r="829" spans="4:15">
-      <c r="D829" s="423" t="s">
+      <c r="D829" s="422" t="s">
         <v>436</v>
       </c>
-      <c r="E829" s="428"/>
-      <c r="F829" s="428"/>
-      <c r="G829" s="428"/>
-      <c r="H829" s="428"/>
-      <c r="I829" s="428"/>
-      <c r="J829" s="428"/>
-      <c r="K829" s="428"/>
-      <c r="L829" s="428"/>
-      <c r="M829" s="428"/>
-      <c r="N829" s="428"/>
-      <c r="O829" s="428"/>
+      <c r="E829" s="427"/>
+      <c r="F829" s="427"/>
+      <c r="G829" s="427"/>
+      <c r="H829" s="427"/>
+      <c r="I829" s="427"/>
+      <c r="J829" s="427"/>
+      <c r="K829" s="427"/>
+      <c r="L829" s="427"/>
+      <c r="M829" s="427"/>
+      <c r="N829" s="427"/>
+      <c r="O829" s="427"/>
     </row>
     <row r="830" spans="4:15">
-      <c r="D830" s="423"/>
+      <c r="D830" s="422"/>
       <c r="E830" s="365">
         <v>2012</v>
       </c>
@@ -58859,17 +58209,17 @@
       <c r="K830" s="366" t="s">
         <v>32</v>
       </c>
-      <c r="L830" s="423" t="s">
+      <c r="L830" s="422" t="s">
         <v>545</v>
       </c>
-      <c r="M830" s="423" t="s">
+      <c r="M830" s="422" t="s">
         <v>546</v>
       </c>
-      <c r="N830" s="428"/>
-      <c r="O830" s="428"/>
+      <c r="N830" s="427"/>
+      <c r="O830" s="427"/>
     </row>
     <row r="831" spans="4:15">
-      <c r="D831" s="415" t="s">
+      <c r="D831" s="414" t="s">
         <v>537</v>
       </c>
       <c r="E831" s="359">
@@ -58890,20 +58240,20 @@
       <c r="J831" s="359">
         <v>0.53273768701915147</v>
       </c>
-      <c r="K831" s="464">
+      <c r="K831" s="463">
         <v>0.53105634441515082</v>
       </c>
-      <c r="L831" s="437">
+      <c r="L831" s="436">
         <v>-1.6813426040006574E-3</v>
       </c>
-      <c r="M831" s="465">
+      <c r="M831" s="464">
         <v>2.1093406846122154E-3</v>
       </c>
-      <c r="N831" s="428"/>
-      <c r="O831" s="428"/>
+      <c r="N831" s="427"/>
+      <c r="O831" s="427"/>
     </row>
     <row r="832" spans="4:15">
-      <c r="D832" s="415" t="s">
+      <c r="D832" s="414" t="s">
         <v>538</v>
       </c>
       <c r="E832" s="359">
@@ -58924,20 +58274,20 @@
       <c r="J832" s="359">
         <v>6.241778738158571E-2</v>
       </c>
-      <c r="K832" s="466">
+      <c r="K832" s="465">
         <v>7.0466949851858071E-2</v>
       </c>
-      <c r="L832" s="467">
+      <c r="L832" s="466">
         <v>8.0491624702723613E-3</v>
       </c>
-      <c r="M832" s="465">
+      <c r="M832" s="464">
         <v>6.1224601178306304E-3</v>
       </c>
-      <c r="N832" s="428"/>
-      <c r="O832" s="428"/>
+      <c r="N832" s="427"/>
+      <c r="O832" s="427"/>
     </row>
     <row r="833" spans="4:15">
-      <c r="D833" s="415" t="s">
+      <c r="D833" s="414" t="s">
         <v>539</v>
       </c>
       <c r="E833" s="359">
@@ -58958,231 +58308,231 @@
       <c r="J833" s="359">
         <v>0.2110159608520977</v>
       </c>
-      <c r="K833" s="466">
+      <c r="K833" s="465">
         <v>0.20483505438533739</v>
       </c>
-      <c r="L833" s="467">
+      <c r="L833" s="466">
         <v>-6.1809064667603109E-3</v>
       </c>
-      <c r="M833" s="465">
+      <c r="M833" s="464">
         <v>-1.017704412706652E-2</v>
       </c>
-      <c r="N833" s="428"/>
-      <c r="O833" s="428"/>
+      <c r="N833" s="427"/>
+      <c r="O833" s="427"/>
     </row>
     <row r="834" spans="4:15">
-      <c r="D834" s="419" t="s">
+      <c r="D834" s="418" t="s">
         <v>540</v>
       </c>
-      <c r="E834" s="468">
+      <c r="E834" s="467">
         <v>2.0790701654186585E-2</v>
       </c>
-      <c r="F834" s="468">
+      <c r="F834" s="467">
         <v>1.7152566541732868E-2</v>
       </c>
-      <c r="G834" s="468">
+      <c r="G834" s="467">
         <v>1.6095669893085151E-2</v>
       </c>
-      <c r="H834" s="468">
+      <c r="H834" s="467">
         <v>1.5855312389406826E-2</v>
       </c>
-      <c r="I834" s="469">
+      <c r="I834" s="468">
         <v>1.207137594089471E-2</v>
       </c>
-      <c r="J834" s="468">
+      <c r="J834" s="467">
         <v>1.6447944295058615E-2</v>
       </c>
-      <c r="K834" s="470">
+      <c r="K834" s="469">
         <v>1.347579290246635E-2</v>
       </c>
-      <c r="L834" s="438">
+      <c r="L834" s="437">
         <v>-2.9721513925922653E-3</v>
       </c>
-      <c r="M834" s="471">
+      <c r="M834" s="470">
         <v>1.4044169615716404E-3</v>
       </c>
-      <c r="N834" s="428"/>
-      <c r="O834" s="428"/>
+      <c r="N834" s="427"/>
+      <c r="O834" s="427"/>
     </row>
     <row r="835" spans="4:15">
-      <c r="D835" s="423" t="s">
+      <c r="D835" s="422" t="s">
         <v>541</v>
       </c>
-      <c r="E835" s="472">
+      <c r="E835" s="471">
         <v>0.2328033566110829</v>
       </c>
-      <c r="F835" s="472">
+      <c r="F835" s="471">
         <v>0.2284755609440276</v>
       </c>
-      <c r="G835" s="472">
+      <c r="G835" s="471">
         <v>0.21510175205154516</v>
       </c>
-      <c r="H835" s="472">
+      <c r="H835" s="471">
         <v>0.22557463423770965</v>
       </c>
-      <c r="I835" s="473">
+      <c r="I835" s="472">
         <v>0.22708347445329863</v>
       </c>
-      <c r="J835" s="474">
+      <c r="J835" s="473">
         <v>0.22746390514715631</v>
       </c>
-      <c r="K835" s="475">
+      <c r="K835" s="474">
         <v>0.21831084728780373</v>
       </c>
-      <c r="L835" s="438">
+      <c r="L835" s="437">
         <v>-9.1530578593525813E-3</v>
       </c>
-      <c r="M835" s="471">
+      <c r="M835" s="470">
         <v>-8.7726271654949006E-3</v>
       </c>
-      <c r="N835" s="428"/>
-      <c r="O835" s="428"/>
+      <c r="N835" s="427"/>
+      <c r="O835" s="427"/>
     </row>
     <row r="836" spans="4:15">
-      <c r="D836" s="430" t="s">
+      <c r="D836" s="429" t="s">
         <v>542</v>
       </c>
-      <c r="E836" s="476">
+      <c r="E836" s="475">
         <v>0.18098869715270313</v>
       </c>
-      <c r="F836" s="476">
+      <c r="F836" s="475">
         <v>0.17412253844960016</v>
       </c>
-      <c r="G836" s="476">
+      <c r="G836" s="475">
         <v>0.17096700802762627</v>
       </c>
-      <c r="H836" s="476">
+      <c r="H836" s="475">
         <v>0.13776061716955323</v>
       </c>
-      <c r="I836" s="477">
+      <c r="I836" s="476">
         <v>0.13882219050087072</v>
       </c>
-      <c r="J836" s="478">
+      <c r="J836" s="477">
         <v>0.13803809815050314</v>
       </c>
-      <c r="K836" s="479">
+      <c r="K836" s="478">
         <v>0.13885578947376673</v>
       </c>
-      <c r="L836" s="437">
+      <c r="L836" s="436">
         <v>8.1769132326359184E-4</v>
       </c>
-      <c r="M836" s="480">
+      <c r="M836" s="479">
         <v>3.3598972896009549E-5</v>
       </c>
-      <c r="N836" s="428"/>
-      <c r="O836" s="428"/>
+      <c r="N836" s="427"/>
+      <c r="O836" s="427"/>
     </row>
     <row r="837" spans="4:15">
-      <c r="D837" s="432" t="s">
+      <c r="D837" s="431" t="s">
         <v>543</v>
       </c>
-      <c r="E837" s="481">
+      <c r="E837" s="480">
         <v>2.9589703513529683E-2</v>
       </c>
-      <c r="F837" s="481">
+      <c r="F837" s="480">
         <v>3.0140949093740103E-2</v>
       </c>
-      <c r="G837" s="481">
+      <c r="G837" s="480">
         <v>3.071845918328877E-2</v>
       </c>
-      <c r="H837" s="481">
+      <c r="H837" s="480">
         <v>3.6346420360759989E-2</v>
       </c>
-      <c r="I837" s="482">
+      <c r="I837" s="481">
         <v>4.080284158126448E-2</v>
       </c>
-      <c r="J837" s="483">
+      <c r="J837" s="482">
         <v>3.9342522301603171E-2</v>
       </c>
-      <c r="K837" s="484">
+      <c r="K837" s="483">
         <v>4.1310068971420678E-2</v>
       </c>
-      <c r="L837" s="438">
+      <c r="L837" s="437">
         <v>1.9675466698175076E-3</v>
       </c>
-      <c r="M837" s="471">
+      <c r="M837" s="470">
         <v>5.07227390156198E-4</v>
       </c>
-      <c r="N837" s="428"/>
-      <c r="O837" s="428"/>
+      <c r="N837" s="427"/>
+      <c r="O837" s="427"/>
     </row>
     <row r="838" spans="4:15">
-      <c r="D838" s="428" t="s">
+      <c r="D838" s="427" t="s">
         <v>544</v>
       </c>
-      <c r="E838" s="485">
+      <c r="E838" s="484">
         <v>1.0000000000000002</v>
       </c>
-      <c r="F838" s="485">
+      <c r="F838" s="484">
         <v>1</v>
       </c>
-      <c r="G838" s="485">
+      <c r="G838" s="484">
         <v>1</v>
       </c>
-      <c r="H838" s="485">
+      <c r="H838" s="484">
         <v>1</v>
       </c>
-      <c r="I838" s="485">
+      <c r="I838" s="484">
         <v>0.99999999999999978</v>
       </c>
-      <c r="J838" s="485">
+      <c r="J838" s="484">
         <v>0.99999999999999989</v>
       </c>
-      <c r="K838" s="485">
+      <c r="K838" s="484">
         <v>1</v>
       </c>
-      <c r="L838" s="428"/>
-      <c r="M838" s="428"/>
-      <c r="N838" s="428"/>
-      <c r="O838" s="428"/>
+      <c r="L838" s="427"/>
+      <c r="M838" s="427"/>
+      <c r="N838" s="427"/>
+      <c r="O838" s="427"/>
     </row>
     <row r="839" spans="4:15">
-      <c r="D839" s="428"/>
-      <c r="E839" s="428"/>
-      <c r="F839" s="428"/>
-      <c r="G839" s="428"/>
-      <c r="H839" s="428"/>
-      <c r="I839" s="428"/>
-      <c r="J839" s="428"/>
-      <c r="K839" s="428"/>
-      <c r="L839" s="428"/>
-      <c r="M839" s="428"/>
-      <c r="N839" s="428"/>
-      <c r="O839" s="428"/>
+      <c r="D839" s="427"/>
+      <c r="E839" s="427"/>
+      <c r="F839" s="427"/>
+      <c r="G839" s="427"/>
+      <c r="H839" s="427"/>
+      <c r="I839" s="427"/>
+      <c r="J839" s="427"/>
+      <c r="K839" s="427"/>
+      <c r="L839" s="427"/>
+      <c r="M839" s="427"/>
+      <c r="N839" s="427"/>
+      <c r="O839" s="427"/>
     </row>
     <row r="840" spans="4:15">
-      <c r="D840" s="428"/>
-      <c r="E840" s="428"/>
-      <c r="F840" s="428"/>
-      <c r="G840" s="428"/>
-      <c r="H840" s="428"/>
-      <c r="I840" s="428"/>
-      <c r="J840" s="428"/>
-      <c r="K840" s="428"/>
-      <c r="L840" s="428"/>
-      <c r="M840" s="428"/>
-      <c r="N840" s="428"/>
-      <c r="O840" s="428"/>
+      <c r="D840" s="427"/>
+      <c r="E840" s="427"/>
+      <c r="F840" s="427"/>
+      <c r="G840" s="427"/>
+      <c r="H840" s="427"/>
+      <c r="I840" s="427"/>
+      <c r="J840" s="427"/>
+      <c r="K840" s="427"/>
+      <c r="L840" s="427"/>
+      <c r="M840" s="427"/>
+      <c r="N840" s="427"/>
+      <c r="O840" s="427"/>
     </row>
     <row r="841" spans="4:15">
-      <c r="D841" s="428"/>
-      <c r="E841" s="428"/>
-      <c r="F841" s="428"/>
-      <c r="G841" s="428"/>
-      <c r="H841" s="428"/>
-      <c r="I841" s="428"/>
-      <c r="J841" s="428"/>
-      <c r="K841" s="428"/>
-      <c r="L841" s="428"/>
-      <c r="M841" s="428"/>
-      <c r="N841" s="428"/>
-      <c r="O841" s="428"/>
+      <c r="D841" s="427"/>
+      <c r="E841" s="427"/>
+      <c r="F841" s="427"/>
+      <c r="G841" s="427"/>
+      <c r="H841" s="427"/>
+      <c r="I841" s="427"/>
+      <c r="J841" s="427"/>
+      <c r="K841" s="427"/>
+      <c r="L841" s="427"/>
+      <c r="M841" s="427"/>
+      <c r="N841" s="427"/>
+      <c r="O841" s="427"/>
     </row>
     <row r="842" spans="4:15">
-      <c r="D842" s="486" t="s">
+      <c r="D842" s="485" t="s">
         <v>547</v>
       </c>
-      <c r="E842" s="487">
+      <c r="E842" s="486">
         <v>2012</v>
       </c>
       <c r="F842" s="365">
@@ -59209,410 +58559,410 @@
       <c r="M842" s="358" t="s">
         <v>549</v>
       </c>
-      <c r="N842" s="439" t="s">
+      <c r="N842" s="438" t="s">
         <v>550</v>
       </c>
-      <c r="O842" s="423" t="s">
+      <c r="O842" s="422" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="843" spans="4:15">
-      <c r="D843" s="431" t="s">
+      <c r="D843" s="430" t="s">
         <v>552</v>
       </c>
-      <c r="E843" s="488">
+      <c r="E843" s="487">
         <v>136429.1</v>
       </c>
-      <c r="F843" s="442">
+      <c r="F843" s="441">
         <v>146208.25</v>
       </c>
-      <c r="G843" s="442">
+      <c r="G843" s="441">
         <v>155566.01</v>
       </c>
-      <c r="H843" s="442">
+      <c r="H843" s="441">
         <v>162819.39000000001</v>
       </c>
-      <c r="I843" s="442">
+      <c r="I843" s="441">
         <v>178253.02</v>
       </c>
-      <c r="J843" s="442">
+      <c r="J843" s="441">
         <v>185650.09</v>
       </c>
-      <c r="K843" s="443">
+      <c r="K843" s="442">
         <v>190211.71</v>
       </c>
-      <c r="L843" s="449">
+      <c r="L843" s="448">
         <v>4561.6199999999953</v>
       </c>
-      <c r="M843" s="489">
+      <c r="M843" s="488">
         <v>11958.690000000002</v>
       </c>
       <c r="N843" s="360">
         <v>2.4571062691108869E-2</v>
       </c>
-      <c r="O843" s="466">
+      <c r="O843" s="465">
         <v>6.7088288321847322E-2</v>
       </c>
     </row>
     <row r="844" spans="4:15">
-      <c r="D844" s="431" t="s">
+      <c r="D844" s="430" t="s">
         <v>553</v>
       </c>
-      <c r="E844" s="490">
+      <c r="E844" s="489">
         <v>17245.689999999999</v>
       </c>
-      <c r="F844" s="448">
+      <c r="F844" s="447">
         <v>15685.59</v>
       </c>
-      <c r="G844" s="448">
+      <c r="G844" s="447">
         <v>19201.96</v>
       </c>
-      <c r="H844" s="448">
+      <c r="H844" s="447">
         <v>26030.51</v>
       </c>
-      <c r="I844" s="448">
+      <c r="I844" s="447">
         <v>26061.05</v>
       </c>
-      <c r="J844" s="448">
+      <c r="J844" s="447">
         <v>25451.5</v>
       </c>
-      <c r="K844" s="449">
+      <c r="K844" s="448">
         <v>24969.7</v>
       </c>
-      <c r="L844" s="449">
+      <c r="L844" s="448">
         <v>-481.79999999999927</v>
       </c>
-      <c r="M844" s="489">
+      <c r="M844" s="488">
         <v>-1091.3499999999985</v>
       </c>
       <c r="N844" s="360">
         <v>-1.8930121996738825E-2</v>
       </c>
-      <c r="O844" s="466">
+      <c r="O844" s="465">
         <v>-4.1876670356720047E-2</v>
       </c>
     </row>
     <row r="845" spans="4:15">
-      <c r="D845" s="431" t="s">
+      <c r="D845" s="430" t="s">
         <v>554</v>
       </c>
-      <c r="E845" s="490">
+      <c r="E845" s="489">
         <v>2321.86</v>
       </c>
-      <c r="F845" s="448">
+      <c r="F845" s="447">
         <v>2530.1799999999998</v>
       </c>
-      <c r="G845" s="448">
+      <c r="G845" s="447">
         <v>2795.9</v>
       </c>
-      <c r="H845" s="448">
+      <c r="H845" s="447">
         <v>3066.22</v>
       </c>
-      <c r="I845" s="448">
+      <c r="I845" s="447">
         <v>3579.37</v>
       </c>
-      <c r="J845" s="448">
+      <c r="J845" s="447">
         <v>3745.69</v>
       </c>
-      <c r="K845" s="449">
+      <c r="K845" s="448">
         <v>4130.16</v>
       </c>
-      <c r="L845" s="449">
+      <c r="L845" s="448">
         <v>384.4699999999998</v>
       </c>
-      <c r="M845" s="489">
+      <c r="M845" s="488">
         <v>550.79</v>
       </c>
       <c r="N845" s="360">
         <v>0.10264330470487404</v>
       </c>
-      <c r="O845" s="466">
+      <c r="O845" s="465">
         <v>0.15387903457871088</v>
       </c>
     </row>
     <row r="846" spans="4:15">
-      <c r="D846" s="431" t="s">
+      <c r="D846" s="430" t="s">
         <v>555</v>
       </c>
-      <c r="E846" s="490">
+      <c r="E846" s="489">
         <v>11.33</v>
       </c>
-      <c r="F846" s="448">
+      <c r="F846" s="447">
         <v>7.24</v>
       </c>
-      <c r="G846" s="448">
+      <c r="G846" s="447">
         <v>6.31</v>
       </c>
-      <c r="H846" s="448">
+      <c r="H846" s="447">
         <v>2.1</v>
       </c>
-      <c r="I846" s="448">
+      <c r="I846" s="447">
         <v>5.45</v>
       </c>
-      <c r="J846" s="448">
+      <c r="J846" s="447">
         <v>5.34</v>
       </c>
-      <c r="K846" s="449">
+      <c r="K846" s="448">
         <v>5.1100000000000003</v>
       </c>
-      <c r="L846" s="449">
+      <c r="L846" s="448">
         <v>-0.22999999999999954</v>
       </c>
-      <c r="M846" s="489">
+      <c r="M846" s="488">
         <v>-0.33999999999999986</v>
       </c>
       <c r="N846" s="360">
         <v>-4.3071161048689022E-2</v>
       </c>
-      <c r="O846" s="466">
+      <c r="O846" s="465">
         <v>-6.2385321100917435E-2</v>
       </c>
     </row>
     <row r="847" spans="4:15">
-      <c r="D847" s="431" t="s">
+      <c r="D847" s="430" t="s">
         <v>543</v>
       </c>
-      <c r="E847" s="490">
+      <c r="E847" s="489">
         <v>8129.6</v>
       </c>
-      <c r="F847" s="448">
+      <c r="F847" s="447">
         <v>11961.63</v>
       </c>
-      <c r="G847" s="448">
+      <c r="G847" s="447">
         <v>13156.310000000001</v>
       </c>
-      <c r="H847" s="448">
+      <c r="H847" s="447">
         <v>12174.390000000001</v>
       </c>
-      <c r="I847" s="448">
+      <c r="I847" s="447">
         <v>13662.130000000001</v>
       </c>
-      <c r="J847" s="448">
+      <c r="J847" s="447">
         <v>13747.03</v>
       </c>
-      <c r="K847" s="449">
+      <c r="K847" s="448">
         <v>15517.44</v>
       </c>
-      <c r="L847" s="449">
+      <c r="L847" s="448">
         <v>1770.4099999999999</v>
       </c>
-      <c r="M847" s="489">
+      <c r="M847" s="488">
         <v>1855.3099999999995</v>
       </c>
       <c r="N847" s="360">
         <v>0.128784908449316</v>
       </c>
-      <c r="O847" s="466">
+      <c r="O847" s="465">
         <v>0.13579946904326046</v>
       </c>
     </row>
     <row r="848" spans="4:15">
-      <c r="D848" s="431" t="s">
+      <c r="D848" s="430" t="s">
         <v>556</v>
       </c>
-      <c r="E848" s="490">
+      <c r="E848" s="489">
         <v>164137.57999999999</v>
       </c>
-      <c r="F848" s="448">
+      <c r="F848" s="447">
         <v>176392.88999999998</v>
       </c>
-      <c r="G848" s="448">
+      <c r="G848" s="447">
         <v>190726.49</v>
       </c>
-      <c r="H848" s="448">
+      <c r="H848" s="447">
         <v>204092.61000000004</v>
       </c>
-      <c r="I848" s="448">
+      <c r="I848" s="447">
         <v>221561.02</v>
       </c>
-      <c r="J848" s="448">
+      <c r="J848" s="447">
         <v>228599.65</v>
       </c>
-      <c r="K848" s="449">
+      <c r="K848" s="448">
         <v>234834.12</v>
       </c>
-      <c r="L848" s="449">
+      <c r="L848" s="448">
         <v>6234.4700000000012</v>
       </c>
-      <c r="M848" s="489">
+      <c r="M848" s="488">
         <v>13273.100000000006</v>
       </c>
       <c r="N848" s="360">
         <v>2.727243895605258E-2</v>
       </c>
-      <c r="O848" s="466">
+      <c r="O848" s="465">
         <v>5.9907198477421764E-2</v>
       </c>
     </row>
     <row r="849" spans="4:15">
-      <c r="D849" s="432" t="s">
+      <c r="D849" s="431" t="s">
         <v>544</v>
       </c>
-      <c r="E849" s="491">
+      <c r="E849" s="490">
         <v>164137.57999999999</v>
       </c>
-      <c r="F849" s="452">
+      <c r="F849" s="451">
         <v>176392.89</v>
       </c>
-      <c r="G849" s="452">
+      <c r="G849" s="451">
         <v>190726.49</v>
       </c>
-      <c r="H849" s="452">
+      <c r="H849" s="451">
         <v>204092.61</v>
       </c>
-      <c r="I849" s="452">
+      <c r="I849" s="451">
         <v>221561.02</v>
       </c>
-      <c r="J849" s="452">
+      <c r="J849" s="451">
         <v>228599.65</v>
       </c>
-      <c r="K849" s="453">
+      <c r="K849" s="452">
         <v>234834.12</v>
       </c>
-      <c r="L849" s="453">
+      <c r="L849" s="452">
         <v>6234.4700000000012</v>
       </c>
-      <c r="M849" s="461">
+      <c r="M849" s="460">
         <v>13273.100000000006</v>
       </c>
-      <c r="N849" s="469">
+      <c r="N849" s="468">
         <v>2.727243895605258E-2</v>
       </c>
-      <c r="O849" s="470">
+      <c r="O849" s="469">
         <v>5.9907198477421764E-2</v>
       </c>
     </row>
     <row r="850" spans="4:15">
-      <c r="D850" s="428"/>
-      <c r="E850" s="428"/>
-      <c r="F850" s="428"/>
-      <c r="G850" s="428"/>
-      <c r="H850" s="428"/>
-      <c r="I850" s="428"/>
-      <c r="J850" s="428"/>
-      <c r="K850" s="428"/>
-      <c r="L850" s="428"/>
-      <c r="M850" s="428"/>
-      <c r="N850" s="428"/>
-      <c r="O850" s="428"/>
+      <c r="D850" s="427"/>
+      <c r="E850" s="427"/>
+      <c r="F850" s="427"/>
+      <c r="G850" s="427"/>
+      <c r="H850" s="427"/>
+      <c r="I850" s="427"/>
+      <c r="J850" s="427"/>
+      <c r="K850" s="427"/>
+      <c r="L850" s="427"/>
+      <c r="M850" s="427"/>
+      <c r="N850" s="427"/>
+      <c r="O850" s="427"/>
     </row>
     <row r="851" spans="4:15">
-      <c r="D851" s="408" t="s">
+      <c r="D851" s="407" t="s">
         <v>557</v>
       </c>
-      <c r="E851" s="492"/>
-      <c r="F851" s="492"/>
-      <c r="G851" s="492"/>
-      <c r="H851" s="492"/>
-      <c r="I851" s="492">
-        <v>0</v>
-      </c>
-      <c r="J851" s="492">
-        <v>0</v>
-      </c>
-      <c r="K851" s="493">
+      <c r="E851" s="491"/>
+      <c r="F851" s="491"/>
+      <c r="G851" s="491"/>
+      <c r="H851" s="491"/>
+      <c r="I851" s="491">
+        <v>0</v>
+      </c>
+      <c r="J851" s="491">
+        <v>0</v>
+      </c>
+      <c r="K851" s="492">
         <v>14</v>
       </c>
-      <c r="L851" s="492">
+      <c r="L851" s="491">
         <v>14</v>
       </c>
-      <c r="M851" s="494">
+      <c r="M851" s="493">
         <v>14</v>
       </c>
       <c r="N851" s="359"/>
-      <c r="O851" s="428"/>
+      <c r="O851" s="427"/>
     </row>
     <row r="852" spans="4:15">
-      <c r="D852" s="423" t="s">
+      <c r="D852" s="422" t="s">
         <v>558</v>
       </c>
-      <c r="E852" s="493"/>
-      <c r="F852" s="493"/>
-      <c r="G852" s="493"/>
-      <c r="H852" s="493"/>
-      <c r="I852" s="493">
+      <c r="E852" s="492"/>
+      <c r="F852" s="492"/>
+      <c r="G852" s="492"/>
+      <c r="H852" s="492"/>
+      <c r="I852" s="492">
         <v>26061.05</v>
       </c>
-      <c r="J852" s="493">
+      <c r="J852" s="492">
         <v>25451.5</v>
       </c>
-      <c r="K852" s="493">
+      <c r="K852" s="492">
         <v>24983.7</v>
       </c>
-      <c r="L852" s="493">
+      <c r="L852" s="492">
         <v>-467.79999999999927</v>
       </c>
-      <c r="M852" s="494">
+      <c r="M852" s="493">
         <v>-1077.3499999999985</v>
       </c>
       <c r="N852" s="359"/>
-      <c r="O852" s="428"/>
+      <c r="O852" s="427"/>
     </row>
     <row r="853" spans="4:15">
-      <c r="D853" s="419" t="s">
+      <c r="D853" s="418" t="s">
         <v>559</v>
       </c>
-      <c r="E853" s="452"/>
-      <c r="F853" s="452"/>
-      <c r="G853" s="452"/>
-      <c r="H853" s="452"/>
-      <c r="I853" s="452"/>
-      <c r="J853" s="452"/>
-      <c r="K853" s="495">
-        <v>0</v>
-      </c>
-      <c r="L853" s="452"/>
-      <c r="M853" s="496"/>
+      <c r="E853" s="451"/>
+      <c r="F853" s="451"/>
+      <c r="G853" s="451"/>
+      <c r="H853" s="451"/>
+      <c r="I853" s="451"/>
+      <c r="J853" s="451"/>
+      <c r="K853" s="494">
+        <v>0</v>
+      </c>
+      <c r="L853" s="451"/>
+      <c r="M853" s="495"/>
       <c r="N853" s="359"/>
-      <c r="O853" s="428"/>
+      <c r="O853" s="427"/>
     </row>
     <row r="854" spans="4:15">
-      <c r="D854" s="428"/>
-      <c r="E854" s="428"/>
-      <c r="F854" s="428"/>
-      <c r="G854" s="428"/>
-      <c r="H854" s="428"/>
-      <c r="I854" s="428"/>
-      <c r="J854" s="428"/>
-      <c r="K854" s="428"/>
-      <c r="L854" s="428"/>
-      <c r="M854" s="428"/>
-      <c r="N854" s="428"/>
-      <c r="O854" s="428"/>
+      <c r="D854" s="427"/>
+      <c r="E854" s="427"/>
+      <c r="F854" s="427"/>
+      <c r="G854" s="427"/>
+      <c r="H854" s="427"/>
+      <c r="I854" s="427"/>
+      <c r="J854" s="427"/>
+      <c r="K854" s="427"/>
+      <c r="L854" s="427"/>
+      <c r="M854" s="427"/>
+      <c r="N854" s="427"/>
+      <c r="O854" s="427"/>
     </row>
     <row r="855" spans="4:15">
-      <c r="D855" s="428"/>
-      <c r="E855" s="428"/>
-      <c r="F855" s="428"/>
-      <c r="G855" s="428"/>
-      <c r="H855" s="428"/>
-      <c r="I855" s="428"/>
-      <c r="J855" s="428"/>
-      <c r="K855" s="428"/>
-      <c r="L855" s="428"/>
-      <c r="M855" s="428"/>
-      <c r="N855" s="428"/>
-      <c r="O855" s="428"/>
+      <c r="D855" s="427"/>
+      <c r="E855" s="427"/>
+      <c r="F855" s="427"/>
+      <c r="G855" s="427"/>
+      <c r="H855" s="427"/>
+      <c r="I855" s="427"/>
+      <c r="J855" s="427"/>
+      <c r="K855" s="427"/>
+      <c r="L855" s="427"/>
+      <c r="M855" s="427"/>
+      <c r="N855" s="427"/>
+      <c r="O855" s="427"/>
     </row>
     <row r="856" spans="4:15">
-      <c r="D856" s="423" t="s">
+      <c r="D856" s="422" t="s">
         <v>560</v>
       </c>
-      <c r="E856" s="428"/>
-      <c r="F856" s="428"/>
-      <c r="G856" s="428"/>
-      <c r="H856" s="428"/>
-      <c r="I856" s="428"/>
-      <c r="J856" s="428"/>
-      <c r="K856" s="428"/>
-      <c r="L856" s="428"/>
-      <c r="M856" s="428"/>
-      <c r="N856" s="428"/>
-      <c r="O856" s="428"/>
+      <c r="E856" s="427"/>
+      <c r="F856" s="427"/>
+      <c r="G856" s="427"/>
+      <c r="H856" s="427"/>
+      <c r="I856" s="427"/>
+      <c r="J856" s="427"/>
+      <c r="K856" s="427"/>
+      <c r="L856" s="427"/>
+      <c r="M856" s="427"/>
+      <c r="N856" s="427"/>
+      <c r="O856" s="427"/>
     </row>
     <row r="857" spans="4:15">
-      <c r="D857" s="423"/>
-      <c r="E857" s="497">
+      <c r="D857" s="422"/>
+      <c r="E857" s="496">
         <v>2012</v>
       </c>
       <c r="F857" s="365">
@@ -59633,54 +58983,54 @@
       <c r="K857" s="365" t="s">
         <v>32</v>
       </c>
-      <c r="L857" s="423" t="s">
+      <c r="L857" s="422" t="s">
         <v>545</v>
       </c>
-      <c r="M857" s="423" t="s">
+      <c r="M857" s="422" t="s">
         <v>546</v>
       </c>
-      <c r="N857" s="498"/>
-      <c r="O857" s="428"/>
+      <c r="N857" s="497"/>
+      <c r="O857" s="427"/>
     </row>
     <row r="858" spans="4:15">
-      <c r="D858" s="415" t="s">
+      <c r="D858" s="414" t="s">
         <v>552</v>
       </c>
-      <c r="E858" s="446">
+      <c r="E858" s="445">
         <v>0.83118747090093581</v>
       </c>
-      <c r="F858" s="499">
+      <c r="F858" s="498">
         <v>0.82887836352134159</v>
       </c>
-      <c r="G858" s="499">
+      <c r="G858" s="498">
         <v>0.81564972962067317</v>
       </c>
-      <c r="H858" s="499">
+      <c r="H858" s="498">
         <v>0.79777209963653251</v>
       </c>
-      <c r="I858" s="499">
+      <c r="I858" s="498">
         <v>0.80453240375946999</v>
       </c>
-      <c r="J858" s="464">
+      <c r="J858" s="463">
         <v>0.81211887244796743</v>
       </c>
-      <c r="K858" s="499">
+      <c r="K858" s="498">
         <v>0.80998327670612769</v>
       </c>
-      <c r="L858" s="464">
+      <c r="L858" s="463">
         <v>-2.1355957418397464E-3</v>
       </c>
-      <c r="M858" s="467">
+      <c r="M858" s="466">
         <v>5.4508729466576922E-3</v>
       </c>
-      <c r="N858" s="500"/>
-      <c r="O858" s="428"/>
+      <c r="N858" s="499"/>
+      <c r="O858" s="427"/>
     </row>
     <row r="859" spans="4:15">
-      <c r="D859" s="415" t="s">
+      <c r="D859" s="414" t="s">
         <v>553</v>
       </c>
-      <c r="E859" s="454">
+      <c r="E859" s="453">
         <v>0.10506850411709494</v>
       </c>
       <c r="F859" s="359">
@@ -59695,26 +59045,26 @@
       <c r="I859" s="359">
         <v>0.11762470672864749</v>
       </c>
-      <c r="J859" s="466">
+      <c r="J859" s="465">
         <v>0.11133656591337739</v>
       </c>
       <c r="K859" s="359">
         <v>0.10632909732197349</v>
       </c>
-      <c r="L859" s="466">
+      <c r="L859" s="465">
         <v>-5.0074685914038991E-3</v>
       </c>
-      <c r="M859" s="467">
+      <c r="M859" s="466">
         <v>-1.1295609406673998E-2</v>
       </c>
-      <c r="N859" s="500"/>
-      <c r="O859" s="428"/>
+      <c r="N859" s="499"/>
+      <c r="O859" s="427"/>
     </row>
     <row r="860" spans="4:15">
-      <c r="D860" s="415" t="s">
+      <c r="D860" s="414" t="s">
         <v>554</v>
       </c>
-      <c r="E860" s="454">
+      <c r="E860" s="453">
         <v>1.4145815967312302E-2</v>
       </c>
       <c r="F860" s="359">
@@ -59729,26 +59079,26 @@
       <c r="I860" s="359">
         <v>1.6155233443139051E-2</v>
       </c>
-      <c r="J860" s="466">
+      <c r="J860" s="465">
         <v>1.6385370668765241E-2</v>
       </c>
       <c r="K860" s="359">
         <v>1.7587563510787954E-2</v>
       </c>
-      <c r="L860" s="466">
+      <c r="L860" s="465">
         <v>1.2021928420227132E-3</v>
       </c>
-      <c r="M860" s="467">
+      <c r="M860" s="466">
         <v>1.4323300676489029E-3</v>
       </c>
-      <c r="N860" s="500"/>
-      <c r="O860" s="428"/>
+      <c r="N860" s="499"/>
+      <c r="O860" s="427"/>
     </row>
     <row r="861" spans="4:15">
-      <c r="D861" s="415" t="s">
+      <c r="D861" s="414" t="s">
         <v>555</v>
       </c>
-      <c r="E861" s="454">
+      <c r="E861" s="453">
         <v>6.902745855032102E-5</v>
       </c>
       <c r="F861" s="359">
@@ -59763,162 +59113,162 @@
       <c r="I861" s="359">
         <v>2.4598189699614131E-5</v>
       </c>
-      <c r="J861" s="466">
+      <c r="J861" s="465">
         <v>2.335961581743454E-5</v>
       </c>
       <c r="K861" s="359">
         <v>2.1760040661893596E-5</v>
       </c>
-      <c r="L861" s="466">
+      <c r="L861" s="465">
         <v>-1.5995751555409437E-6</v>
       </c>
-      <c r="M861" s="467">
+      <c r="M861" s="466">
         <v>-2.8381490377205352E-6</v>
       </c>
-      <c r="N861" s="498"/>
-      <c r="O861" s="428"/>
+      <c r="N861" s="497"/>
+      <c r="O861" s="427"/>
     </row>
     <row r="862" spans="4:15">
-      <c r="D862" s="419" t="s">
+      <c r="D862" s="418" t="s">
         <v>543</v>
       </c>
-      <c r="E862" s="501">
+      <c r="E862" s="500">
         <v>4.9529181556106777E-2</v>
       </c>
-      <c r="F862" s="468">
+      <c r="F862" s="467">
         <v>6.781242713354263E-2</v>
       </c>
-      <c r="G862" s="468">
+      <c r="G862" s="467">
         <v>6.8979982801550016E-2</v>
       </c>
-      <c r="H862" s="468">
+      <c r="H862" s="467">
         <v>5.9651302416094336E-2</v>
       </c>
-      <c r="I862" s="468">
+      <c r="I862" s="467">
         <v>6.1663057879043894E-2</v>
       </c>
-      <c r="J862" s="470">
+      <c r="J862" s="469">
         <v>6.0135831354072508E-2</v>
       </c>
-      <c r="K862" s="468">
+      <c r="K862" s="467">
         <v>6.6078302420448959E-2</v>
       </c>
-      <c r="L862" s="470">
+      <c r="L862" s="469">
         <v>5.9424710663764507E-3</v>
       </c>
-      <c r="M862" s="438">
+      <c r="M862" s="437">
         <v>4.4152445414050653E-3</v>
       </c>
-      <c r="N862" s="498"/>
-      <c r="O862" s="428"/>
+      <c r="N862" s="497"/>
+      <c r="O862" s="427"/>
     </row>
     <row r="863" spans="4:15">
-      <c r="D863" s="428" t="s">
+      <c r="D863" s="427" t="s">
         <v>544</v>
       </c>
-      <c r="E863" s="485">
+      <c r="E863" s="484">
         <v>1.0000000000000002</v>
       </c>
-      <c r="F863" s="485">
+      <c r="F863" s="484">
         <v>1</v>
       </c>
-      <c r="G863" s="485">
+      <c r="G863" s="484">
         <v>1.0000000000000002</v>
       </c>
-      <c r="H863" s="485">
+      <c r="H863" s="484">
         <v>0.99999999999999967</v>
       </c>
-      <c r="I863" s="485">
+      <c r="I863" s="484">
         <v>1</v>
       </c>
-      <c r="J863" s="485">
+      <c r="J863" s="484">
         <v>1</v>
       </c>
-      <c r="K863" s="485">
+      <c r="K863" s="484">
         <v>1</v>
       </c>
-      <c r="L863" s="428"/>
-      <c r="M863" s="439"/>
-      <c r="N863" s="498"/>
-      <c r="O863" s="428"/>
+      <c r="L863" s="427"/>
+      <c r="M863" s="438"/>
+      <c r="N863" s="497"/>
+      <c r="O863" s="427"/>
     </row>
     <row r="864" spans="4:15">
-      <c r="D864" s="486" t="s">
+      <c r="D864" s="485" t="s">
         <v>561</v>
       </c>
-      <c r="E864" s="497"/>
-      <c r="F864" s="497"/>
-      <c r="G864" s="497"/>
-      <c r="H864" s="497"/>
-      <c r="I864" s="472">
+      <c r="E864" s="496"/>
+      <c r="F864" s="496"/>
+      <c r="G864" s="496"/>
+      <c r="H864" s="496"/>
+      <c r="I864" s="471">
         <v>0.11762470672864749</v>
       </c>
-      <c r="J864" s="472">
+      <c r="J864" s="471">
         <v>0.11133656591337739</v>
       </c>
-      <c r="K864" s="472">
+      <c r="K864" s="471">
         <v>0.1063887138717321</v>
       </c>
-      <c r="L864" s="497"/>
-      <c r="M864" s="439"/>
-      <c r="N864" s="428"/>
-      <c r="O864" s="428"/>
+      <c r="L864" s="496"/>
+      <c r="M864" s="438"/>
+      <c r="N864" s="427"/>
+      <c r="O864" s="427"/>
     </row>
     <row r="865" spans="4:15">
-      <c r="D865" s="428"/>
-      <c r="E865" s="428"/>
-      <c r="F865" s="428"/>
-      <c r="G865" s="428"/>
-      <c r="H865" s="428"/>
-      <c r="I865" s="428"/>
-      <c r="J865" s="428"/>
-      <c r="K865" s="428"/>
-      <c r="L865" s="428"/>
-      <c r="M865" s="428"/>
-      <c r="N865" s="428"/>
-      <c r="O865" s="428"/>
+      <c r="D865" s="427"/>
+      <c r="E865" s="427"/>
+      <c r="F865" s="427"/>
+      <c r="G865" s="427"/>
+      <c r="H865" s="427"/>
+      <c r="I865" s="427"/>
+      <c r="J865" s="427"/>
+      <c r="K865" s="427"/>
+      <c r="L865" s="427"/>
+      <c r="M865" s="427"/>
+      <c r="N865" s="427"/>
+      <c r="O865" s="427"/>
     </row>
     <row r="866" spans="4:15">
-      <c r="D866" s="428"/>
-      <c r="E866" s="428"/>
-      <c r="F866" s="428"/>
-      <c r="G866" s="428"/>
-      <c r="H866" s="428"/>
-      <c r="I866" s="428"/>
-      <c r="J866" s="428"/>
-      <c r="K866" s="428"/>
-      <c r="L866" s="428"/>
-      <c r="M866" s="428"/>
-      <c r="N866" s="428"/>
-      <c r="O866" s="428"/>
+      <c r="D866" s="427"/>
+      <c r="E866" s="427"/>
+      <c r="F866" s="427"/>
+      <c r="G866" s="427"/>
+      <c r="H866" s="427"/>
+      <c r="I866" s="427"/>
+      <c r="J866" s="427"/>
+      <c r="K866" s="427"/>
+      <c r="L866" s="427"/>
+      <c r="M866" s="427"/>
+      <c r="N866" s="427"/>
+      <c r="O866" s="427"/>
     </row>
     <row r="867" spans="4:15">
-      <c r="D867" s="428"/>
-      <c r="E867" s="428"/>
-      <c r="F867" s="428"/>
-      <c r="G867" s="428"/>
-      <c r="H867" s="428"/>
-      <c r="I867" s="428"/>
-      <c r="J867" s="428"/>
-      <c r="K867" s="428"/>
-      <c r="L867" s="428"/>
-      <c r="M867" s="428"/>
-      <c r="N867" s="428"/>
-      <c r="O867" s="428"/>
+      <c r="D867" s="427"/>
+      <c r="E867" s="427"/>
+      <c r="F867" s="427"/>
+      <c r="G867" s="427"/>
+      <c r="H867" s="427"/>
+      <c r="I867" s="427"/>
+      <c r="J867" s="427"/>
+      <c r="K867" s="427"/>
+      <c r="L867" s="427"/>
+      <c r="M867" s="427"/>
+      <c r="N867" s="427"/>
+      <c r="O867" s="427"/>
     </row>
     <row r="868" spans="4:15">
-      <c r="D868" s="428"/>
-      <c r="E868" s="428"/>
-      <c r="F868" s="428"/>
-      <c r="G868" s="428"/>
-      <c r="H868" s="428"/>
-      <c r="I868" s="428"/>
-      <c r="J868" s="502"/>
-      <c r="K868" s="428"/>
-      <c r="L868" s="428"/>
-      <c r="M868" s="428"/>
-      <c r="N868" s="428"/>
-      <c r="O868" s="428"/>
+      <c r="D868" s="427"/>
+      <c r="E868" s="427"/>
+      <c r="F868" s="427"/>
+      <c r="G868" s="427"/>
+      <c r="H868" s="427"/>
+      <c r="I868" s="427"/>
+      <c r="J868" s="501"/>
+      <c r="K868" s="427"/>
+      <c r="L868" s="427"/>
+      <c r="M868" s="427"/>
+      <c r="N868" s="427"/>
+      <c r="O868" s="427"/>
     </row>
     <row r="886" spans="2:11" s="32" customFormat="1" ht="13.5" thickBot="1"/>
     <row r="887" spans="2:11" ht="13.5" thickTop="1"/>
@@ -59928,19 +59278,19 @@
       </c>
     </row>
     <row r="889" spans="2:11">
-      <c r="D889" s="423" t="s">
+      <c r="D889" s="422" t="s">
         <v>563</v>
       </c>
-      <c r="E889" s="428"/>
-      <c r="F889" s="428"/>
-      <c r="G889" s="428"/>
-      <c r="H889" s="428"/>
-      <c r="I889" s="428"/>
-      <c r="J889" s="428"/>
-      <c r="K889" s="428"/>
+      <c r="E889" s="427"/>
+      <c r="F889" s="427"/>
+      <c r="G889" s="427"/>
+      <c r="H889" s="427"/>
+      <c r="I889" s="427"/>
+      <c r="J889" s="427"/>
+      <c r="K889" s="427"/>
     </row>
     <row r="890" spans="2:11">
-      <c r="D890" s="486"/>
+      <c r="D890" s="485"/>
       <c r="E890" s="356">
         <v>41274</v>
       </c>
@@ -59964,7 +59314,7 @@
       </c>
     </row>
     <row r="891" spans="2:11">
-      <c r="D891" s="415" t="s">
+      <c r="D891" s="414" t="s">
         <v>514</v>
       </c>
       <c r="E891" s="359">
@@ -59985,12 +59335,12 @@
       <c r="J891" s="360">
         <v>1.5655086154106448E-2</v>
       </c>
-      <c r="K891" s="465">
+      <c r="K891" s="464">
         <v>-5.6636579531533365E-4</v>
       </c>
     </row>
     <row r="892" spans="2:11">
-      <c r="D892" s="415" t="s">
+      <c r="D892" s="414" t="s">
         <v>565</v>
       </c>
       <c r="E892" s="359">
@@ -60011,12 +59361,12 @@
       <c r="J892" s="360">
         <v>3.9027228579100008E-2</v>
       </c>
-      <c r="K892" s="465">
+      <c r="K892" s="464">
         <v>-5.701107804740313E-3</v>
       </c>
     </row>
     <row r="893" spans="2:11">
-      <c r="D893" s="415" t="s">
+      <c r="D893" s="414" t="s">
         <v>515</v>
       </c>
       <c r="E893" s="359">
@@ -60037,12 +59387,12 @@
       <c r="J893" s="360">
         <v>2.2257177657808082E-2</v>
       </c>
-      <c r="K893" s="465">
+      <c r="K893" s="464">
         <v>-4.252057420862522E-3</v>
       </c>
     </row>
     <row r="894" spans="2:11">
-      <c r="D894" s="415" t="s">
+      <c r="D894" s="414" t="s">
         <v>566</v>
       </c>
       <c r="E894" s="359">
@@ -60063,12 +59413,12 @@
       <c r="J894" s="360">
         <v>1.4161783407059716E-2</v>
       </c>
-      <c r="K894" s="465">
+      <c r="K894" s="464">
         <v>-7.7382968051135405E-4</v>
       </c>
     </row>
     <row r="895" spans="2:11">
-      <c r="D895" s="415" t="s">
+      <c r="D895" s="414" t="s">
         <v>567</v>
       </c>
       <c r="E895" s="359">
@@ -60089,12 +59439,12 @@
       <c r="J895" s="360">
         <v>0.70337247582756557</v>
       </c>
-      <c r="K895" s="465">
+      <c r="K895" s="464">
         <v>9.1455462708103563E-2</v>
       </c>
     </row>
     <row r="896" spans="2:11">
-      <c r="D896" s="415" t="s">
+      <c r="D896" s="414" t="s">
         <v>568</v>
       </c>
       <c r="E896" s="359">
@@ -60115,12 +59465,12 @@
       <c r="J896" s="360">
         <v>1.1054459529653811</v>
       </c>
-      <c r="K896" s="465">
+      <c r="K896" s="464">
         <v>1.9353815045663136E-2</v>
       </c>
     </row>
     <row r="897" spans="4:11">
-      <c r="D897" s="503" t="s">
+      <c r="D897" s="502" t="s">
         <v>516</v>
       </c>
       <c r="E897" s="361">
@@ -60146,37 +59496,37 @@
       </c>
     </row>
     <row r="898" spans="4:11">
-      <c r="D898" s="428"/>
-      <c r="E898" s="504"/>
-      <c r="F898" s="504"/>
-      <c r="G898" s="504"/>
-      <c r="H898" s="504"/>
-      <c r="I898" s="504"/>
-      <c r="J898" s="428"/>
-      <c r="K898" s="428"/>
+      <c r="D898" s="427"/>
+      <c r="E898" s="503"/>
+      <c r="F898" s="503"/>
+      <c r="G898" s="503"/>
+      <c r="H898" s="503"/>
+      <c r="I898" s="503"/>
+      <c r="J898" s="427"/>
+      <c r="K898" s="427"/>
     </row>
     <row r="899" spans="4:11">
-      <c r="D899" s="428"/>
-      <c r="E899" s="428"/>
-      <c r="F899" s="428"/>
-      <c r="G899" s="428"/>
-      <c r="H899" s="428"/>
-      <c r="I899" s="428"/>
-      <c r="J899" s="428"/>
-      <c r="K899" s="428"/>
+      <c r="D899" s="427"/>
+      <c r="E899" s="427"/>
+      <c r="F899" s="427"/>
+      <c r="G899" s="427"/>
+      <c r="H899" s="427"/>
+      <c r="I899" s="427"/>
+      <c r="J899" s="427"/>
+      <c r="K899" s="427"/>
     </row>
     <row r="900" spans="4:11">
-      <c r="D900" s="428"/>
-      <c r="E900" s="428"/>
-      <c r="F900" s="428"/>
-      <c r="G900" s="428"/>
-      <c r="H900" s="428"/>
-      <c r="I900" s="428"/>
-      <c r="J900" s="428"/>
-      <c r="K900" s="428"/>
+      <c r="D900" s="427"/>
+      <c r="E900" s="427"/>
+      <c r="F900" s="427"/>
+      <c r="G900" s="427"/>
+      <c r="H900" s="427"/>
+      <c r="I900" s="427"/>
+      <c r="J900" s="427"/>
+      <c r="K900" s="427"/>
     </row>
     <row r="901" spans="4:11">
-      <c r="D901" s="505" t="s">
+      <c r="D901" s="504" t="s">
         <v>569</v>
       </c>
       <c r="E901" s="365">
@@ -60197,10 +59547,10 @@
       <c r="J901" s="366" t="s">
         <v>32</v>
       </c>
-      <c r="K901" s="428"/>
+      <c r="K901" s="427"/>
     </row>
     <row r="902" spans="4:11">
-      <c r="D902" s="415" t="s">
+      <c r="D902" s="414" t="s">
         <v>570</v>
       </c>
       <c r="E902" s="367">
@@ -60221,12 +59571,12 @@
       <c r="J902" s="368">
         <v>0.64385472311984737</v>
       </c>
-      <c r="K902" s="485">
+      <c r="K902" s="484">
         <v>2.0374596295957503E-2</v>
       </c>
     </row>
     <row r="903" spans="4:11">
-      <c r="D903" s="415" t="s">
+      <c r="D903" s="414" t="s">
         <v>472</v>
       </c>
       <c r="E903" s="367">
@@ -60247,12 +59597,12 @@
       <c r="J903" s="368">
         <v>0.32995968746080767</v>
       </c>
-      <c r="K903" s="485">
+      <c r="K903" s="484">
         <v>8.5827638147755181E-3</v>
       </c>
     </row>
     <row r="904" spans="4:11">
-      <c r="D904" s="419" t="s">
+      <c r="D904" s="418" t="s">
         <v>571</v>
       </c>
       <c r="E904" s="369">
@@ -60273,10 +59623,10 @@
       <c r="J904" s="370">
         <v>2.6185589419344957E-2</v>
       </c>
-      <c r="K904" s="428"/>
+      <c r="K904" s="427"/>
     </row>
     <row r="905" spans="4:11">
-      <c r="D905" s="428"/>
+      <c r="D905" s="427"/>
       <c r="E905" s="367">
         <v>1</v>
       </c>
@@ -60295,655 +59645,655 @@
       <c r="J905" s="367">
         <v>1</v>
       </c>
-      <c r="K905" s="428"/>
+      <c r="K905" s="427"/>
     </row>
     <row r="906" spans="4:11">
-      <c r="D906" s="428"/>
+      <c r="D906" s="427"/>
       <c r="E906" s="367"/>
       <c r="F906" s="367"/>
       <c r="G906" s="367"/>
       <c r="H906" s="367"/>
       <c r="I906" s="367"/>
-      <c r="J906" s="428"/>
-      <c r="K906" s="428"/>
+      <c r="J906" s="427"/>
+      <c r="K906" s="427"/>
     </row>
     <row r="907" spans="4:11">
-      <c r="D907" s="506" t="s">
+      <c r="D907" s="505" t="s">
         <v>572</v>
       </c>
-      <c r="E907" s="507"/>
-      <c r="F907" s="508" t="s">
+      <c r="E907" s="506"/>
+      <c r="F907" s="507" t="s">
         <v>573</v>
       </c>
-      <c r="G907" s="509"/>
-      <c r="H907" s="510"/>
-      <c r="I907" s="510"/>
-      <c r="J907" s="510"/>
-      <c r="K907" s="510"/>
+      <c r="G907" s="508"/>
+      <c r="H907" s="509"/>
+      <c r="I907" s="509"/>
+      <c r="J907" s="509"/>
+      <c r="K907" s="509"/>
     </row>
     <row r="908" spans="4:11">
-      <c r="D908" s="511" t="s">
+      <c r="D908" s="510" t="s">
         <v>574</v>
       </c>
-      <c r="E908" s="512"/>
-      <c r="F908" s="513">
+      <c r="E908" s="511"/>
+      <c r="F908" s="512">
         <v>1273.9300000000003</v>
       </c>
-      <c r="G908" s="510"/>
-      <c r="H908" s="510"/>
-      <c r="I908" s="510"/>
-      <c r="J908" s="510"/>
-      <c r="K908" s="510"/>
+      <c r="G908" s="509"/>
+      <c r="H908" s="509"/>
+      <c r="I908" s="509"/>
+      <c r="J908" s="509"/>
+      <c r="K908" s="509"/>
     </row>
     <row r="909" spans="4:11">
-      <c r="D909" s="514" t="s">
+      <c r="D909" s="513" t="s">
         <v>575</v>
       </c>
-      <c r="E909" s="510"/>
-      <c r="F909" s="515">
+      <c r="E909" s="509"/>
+      <c r="F909" s="514">
         <v>561.43000000000029</v>
       </c>
-      <c r="G909" s="510"/>
-      <c r="H909" s="510"/>
-      <c r="I909" s="510"/>
-      <c r="J909" s="510"/>
-      <c r="K909" s="510"/>
+      <c r="G909" s="509"/>
+      <c r="H909" s="509"/>
+      <c r="I909" s="509"/>
+      <c r="J909" s="509"/>
+      <c r="K909" s="509"/>
     </row>
     <row r="910" spans="4:11">
-      <c r="D910" s="514" t="s">
+      <c r="D910" s="513" t="s">
         <v>576</v>
       </c>
-      <c r="E910" s="510"/>
-      <c r="F910" s="515">
+      <c r="E910" s="509"/>
+      <c r="F910" s="514">
         <v>687.3700000000008</v>
       </c>
-      <c r="G910" s="510"/>
-      <c r="H910" s="510"/>
-      <c r="I910" s="510"/>
-      <c r="J910" s="510"/>
-      <c r="K910" s="510"/>
+      <c r="G910" s="509"/>
+      <c r="H910" s="509"/>
+      <c r="I910" s="509"/>
+      <c r="J910" s="509"/>
+      <c r="K910" s="509"/>
     </row>
     <row r="911" spans="4:11">
-      <c r="D911" s="514" t="s">
+      <c r="D911" s="513" t="s">
         <v>577</v>
       </c>
-      <c r="E911" s="510"/>
-      <c r="F911" s="515">
+      <c r="E911" s="509"/>
+      <c r="F911" s="514">
         <v>1273.0199999999995</v>
       </c>
-      <c r="G911" s="510"/>
-      <c r="H911" s="510"/>
-      <c r="I911" s="510"/>
-      <c r="J911" s="510"/>
-      <c r="K911" s="510"/>
+      <c r="G911" s="509"/>
+      <c r="H911" s="509"/>
+      <c r="I911" s="509"/>
+      <c r="J911" s="509"/>
+      <c r="K911" s="509"/>
     </row>
     <row r="912" spans="4:11">
-      <c r="D912" s="514" t="s">
+      <c r="D912" s="513" t="s">
         <v>578</v>
       </c>
-      <c r="E912" s="510"/>
-      <c r="F912" s="515">
+      <c r="E912" s="509"/>
+      <c r="F912" s="514">
         <v>1269.04</v>
       </c>
-      <c r="G912" s="510"/>
-      <c r="H912" s="510"/>
-      <c r="I912" s="510"/>
-      <c r="J912" s="510"/>
-      <c r="K912" s="510"/>
+      <c r="G912" s="509"/>
+      <c r="H912" s="509"/>
+      <c r="I912" s="509"/>
+      <c r="J912" s="509"/>
+      <c r="K912" s="509"/>
     </row>
     <row r="913" spans="4:11">
-      <c r="D913" s="514" t="s">
+      <c r="D913" s="513" t="s">
         <v>579</v>
       </c>
-      <c r="E913" s="510"/>
-      <c r="F913" s="515">
+      <c r="E913" s="509"/>
+      <c r="F913" s="514">
         <v>42.680000000000291</v>
       </c>
-      <c r="G913" s="510"/>
-      <c r="H913" s="510"/>
-      <c r="I913" s="510"/>
-      <c r="J913" s="510"/>
-      <c r="K913" s="510"/>
+      <c r="G913" s="509"/>
+      <c r="H913" s="509"/>
+      <c r="I913" s="509"/>
+      <c r="J913" s="509"/>
+      <c r="K913" s="509"/>
     </row>
     <row r="914" spans="4:11">
-      <c r="D914" s="514" t="s">
+      <c r="D914" s="513" t="s">
         <v>580</v>
       </c>
-      <c r="E914" s="510"/>
-      <c r="F914" s="515">
+      <c r="E914" s="509"/>
+      <c r="F914" s="514">
         <v>593.42000000000007</v>
       </c>
-      <c r="G914" s="510"/>
-      <c r="H914" s="510"/>
-      <c r="I914" s="510"/>
-      <c r="J914" s="510"/>
-      <c r="K914" s="510"/>
+      <c r="G914" s="509"/>
+      <c r="H914" s="509"/>
+      <c r="I914" s="509"/>
+      <c r="J914" s="509"/>
+      <c r="K914" s="509"/>
     </row>
     <row r="915" spans="4:11">
-      <c r="D915" s="514" t="s">
+      <c r="D915" s="513" t="s">
         <v>581</v>
       </c>
-      <c r="E915" s="510"/>
-      <c r="F915" s="515">
+      <c r="E915" s="509"/>
+      <c r="F915" s="514">
         <v>11.789999999999964</v>
       </c>
-      <c r="G915" s="510"/>
-      <c r="H915" s="510"/>
-      <c r="I915" s="510"/>
-      <c r="J915" s="510"/>
-      <c r="K915" s="510"/>
+      <c r="G915" s="509"/>
+      <c r="H915" s="509"/>
+      <c r="I915" s="509"/>
+      <c r="J915" s="509"/>
+      <c r="K915" s="509"/>
     </row>
     <row r="916" spans="4:11">
-      <c r="D916" s="514" t="s">
+      <c r="D916" s="513" t="s">
         <v>582</v>
       </c>
-      <c r="E916" s="510"/>
-      <c r="F916" s="515">
+      <c r="E916" s="509"/>
+      <c r="F916" s="514">
         <v>262.67000000000007</v>
       </c>
-      <c r="G916" s="510"/>
-      <c r="H916" s="510"/>
-      <c r="I916" s="510"/>
-      <c r="J916" s="510"/>
-      <c r="K916" s="510"/>
+      <c r="G916" s="509"/>
+      <c r="H916" s="509"/>
+      <c r="I916" s="509"/>
+      <c r="J916" s="509"/>
+      <c r="K916" s="509"/>
     </row>
     <row r="917" spans="4:11">
-      <c r="D917" s="514" t="s">
+      <c r="D917" s="513" t="s">
         <v>583</v>
       </c>
-      <c r="E917" s="510"/>
-      <c r="F917" s="515">
+      <c r="E917" s="509"/>
+      <c r="F917" s="514">
         <v>18.049999999999955</v>
       </c>
-      <c r="G917" s="510"/>
-      <c r="H917" s="510"/>
-      <c r="I917" s="510"/>
-      <c r="J917" s="510"/>
-      <c r="K917" s="510"/>
+      <c r="G917" s="509"/>
+      <c r="H917" s="509"/>
+      <c r="I917" s="509"/>
+      <c r="J917" s="509"/>
+      <c r="K917" s="509"/>
     </row>
     <row r="918" spans="4:11">
-      <c r="D918" s="514" t="s">
+      <c r="D918" s="513" t="s">
         <v>584</v>
       </c>
-      <c r="E918" s="510"/>
-      <c r="F918" s="515">
+      <c r="E918" s="509"/>
+      <c r="F918" s="514">
         <v>-84.320000000000164</v>
       </c>
-      <c r="G918" s="510"/>
-      <c r="H918" s="510"/>
-      <c r="I918" s="510"/>
-      <c r="J918" s="510"/>
-      <c r="K918" s="510"/>
+      <c r="G918" s="509"/>
+      <c r="H918" s="509"/>
+      <c r="I918" s="509"/>
+      <c r="J918" s="509"/>
+      <c r="K918" s="509"/>
     </row>
     <row r="919" spans="4:11">
-      <c r="D919" s="514" t="s">
+      <c r="D919" s="513" t="s">
         <v>585</v>
       </c>
-      <c r="E919" s="510"/>
-      <c r="F919" s="515">
+      <c r="E919" s="509"/>
+      <c r="F919" s="514">
         <v>106.01999999999998</v>
       </c>
-      <c r="G919" s="510"/>
-      <c r="H919" s="510"/>
-      <c r="I919" s="510"/>
-      <c r="J919" s="510"/>
-      <c r="K919" s="510"/>
+      <c r="G919" s="509"/>
+      <c r="H919" s="509"/>
+      <c r="I919" s="509"/>
+      <c r="J919" s="509"/>
+      <c r="K919" s="509"/>
     </row>
     <row r="920" spans="4:11">
-      <c r="D920" s="514"/>
-      <c r="E920" s="510"/>
-      <c r="F920" s="515"/>
-      <c r="G920" s="510"/>
-      <c r="H920" s="510"/>
-      <c r="I920" s="510"/>
-      <c r="J920" s="510"/>
-      <c r="K920" s="510"/>
+      <c r="D920" s="513"/>
+      <c r="E920" s="509"/>
+      <c r="F920" s="514"/>
+      <c r="G920" s="509"/>
+      <c r="H920" s="509"/>
+      <c r="I920" s="509"/>
+      <c r="J920" s="509"/>
+      <c r="K920" s="509"/>
     </row>
     <row r="921" spans="4:11">
-      <c r="D921" s="514"/>
-      <c r="E921" s="510"/>
-      <c r="F921" s="515"/>
-      <c r="G921" s="510"/>
-      <c r="H921" s="510"/>
-      <c r="I921" s="510"/>
-      <c r="J921" s="510"/>
-      <c r="K921" s="510"/>
+      <c r="D921" s="513"/>
+      <c r="E921" s="509"/>
+      <c r="F921" s="514"/>
+      <c r="G921" s="509"/>
+      <c r="H921" s="509"/>
+      <c r="I921" s="509"/>
+      <c r="J921" s="509"/>
+      <c r="K921" s="509"/>
     </row>
     <row r="922" spans="4:11">
-      <c r="D922" s="514"/>
-      <c r="E922" s="510"/>
-      <c r="F922" s="515"/>
-      <c r="G922" s="510"/>
-      <c r="H922" s="510" t="s">
+      <c r="D922" s="513"/>
+      <c r="E922" s="509"/>
+      <c r="F922" s="514"/>
+      <c r="G922" s="509"/>
+      <c r="H922" s="509" t="s">
         <v>586</v>
       </c>
-      <c r="I922" s="510"/>
-      <c r="J922" s="510"/>
-      <c r="K922" s="510"/>
+      <c r="I922" s="509"/>
+      <c r="J922" s="509"/>
+      <c r="K922" s="509"/>
     </row>
     <row r="923" spans="4:11">
-      <c r="D923" s="514"/>
-      <c r="E923" s="510"/>
-      <c r="F923" s="515"/>
-      <c r="G923" s="510"/>
-      <c r="H923" s="510" t="s">
+      <c r="D923" s="513"/>
+      <c r="E923" s="509"/>
+      <c r="F923" s="514"/>
+      <c r="G923" s="509"/>
+      <c r="H923" s="509" t="s">
         <v>586</v>
       </c>
-      <c r="I923" s="510"/>
-      <c r="J923" s="510"/>
-      <c r="K923" s="510"/>
+      <c r="I923" s="509"/>
+      <c r="J923" s="509"/>
+      <c r="K923" s="509"/>
     </row>
     <row r="924" spans="4:11">
-      <c r="D924" s="514"/>
-      <c r="E924" s="510"/>
-      <c r="F924" s="515"/>
-      <c r="G924" s="510"/>
-      <c r="H924" s="510" t="s">
+      <c r="D924" s="513"/>
+      <c r="E924" s="509"/>
+      <c r="F924" s="514"/>
+      <c r="G924" s="509"/>
+      <c r="H924" s="509" t="s">
         <v>586</v>
       </c>
-      <c r="I924" s="510"/>
-      <c r="J924" s="510"/>
-      <c r="K924" s="510"/>
+      <c r="I924" s="509"/>
+      <c r="J924" s="509"/>
+      <c r="K924" s="509"/>
     </row>
     <row r="925" spans="4:11">
-      <c r="D925" s="514"/>
-      <c r="E925" s="510"/>
-      <c r="F925" s="515"/>
-      <c r="G925" s="510"/>
-      <c r="H925" s="510" t="s">
+      <c r="D925" s="513"/>
+      <c r="E925" s="509"/>
+      <c r="F925" s="514"/>
+      <c r="G925" s="509"/>
+      <c r="H925" s="509" t="s">
         <v>586</v>
       </c>
-      <c r="I925" s="510"/>
-      <c r="J925" s="510"/>
-      <c r="K925" s="510"/>
+      <c r="I925" s="509"/>
+      <c r="J925" s="509"/>
+      <c r="K925" s="509"/>
     </row>
     <row r="926" spans="4:11">
-      <c r="D926" s="516"/>
-      <c r="E926" s="517"/>
-      <c r="F926" s="518"/>
-      <c r="G926" s="510"/>
-      <c r="H926" s="510" t="s">
+      <c r="D926" s="515"/>
+      <c r="E926" s="516"/>
+      <c r="F926" s="517"/>
+      <c r="G926" s="509"/>
+      <c r="H926" s="509" t="s">
         <v>586</v>
       </c>
-      <c r="I926" s="510"/>
-      <c r="J926" s="510"/>
-      <c r="K926" s="510"/>
+      <c r="I926" s="509"/>
+      <c r="J926" s="509"/>
+      <c r="K926" s="509"/>
     </row>
     <row r="927" spans="4:11">
-      <c r="D927" s="519"/>
-      <c r="E927" s="510"/>
-      <c r="F927" s="520"/>
-      <c r="G927" s="510"/>
-      <c r="H927" s="510"/>
-      <c r="I927" s="510"/>
-      <c r="J927" s="510"/>
-      <c r="K927" s="510"/>
+      <c r="D927" s="518"/>
+      <c r="E927" s="509"/>
+      <c r="F927" s="519"/>
+      <c r="G927" s="509"/>
+      <c r="H927" s="509"/>
+      <c r="I927" s="509"/>
+      <c r="J927" s="509"/>
+      <c r="K927" s="509"/>
     </row>
     <row r="928" spans="4:11">
-      <c r="D928" s="519"/>
-      <c r="E928" s="510"/>
-      <c r="F928" s="520"/>
-      <c r="G928" s="510"/>
-      <c r="H928" s="510"/>
-      <c r="I928" s="510"/>
-      <c r="J928" s="510"/>
-      <c r="K928" s="510"/>
+      <c r="D928" s="518"/>
+      <c r="E928" s="509"/>
+      <c r="F928" s="519"/>
+      <c r="G928" s="509"/>
+      <c r="H928" s="509"/>
+      <c r="I928" s="509"/>
+      <c r="J928" s="509"/>
+      <c r="K928" s="509"/>
     </row>
     <row r="929" spans="4:11">
-      <c r="D929" s="486" t="s">
+      <c r="D929" s="485" t="s">
         <v>587</v>
       </c>
-      <c r="E929" s="521">
+      <c r="E929" s="520">
         <v>2012</v>
       </c>
-      <c r="F929" s="521">
+      <c r="F929" s="520">
         <v>2013</v>
       </c>
-      <c r="G929" s="521">
+      <c r="G929" s="520">
         <v>2014</v>
       </c>
-      <c r="H929" s="521">
+      <c r="H929" s="520">
         <v>2015</v>
       </c>
-      <c r="I929" s="521" t="s">
+      <c r="I929" s="520" t="s">
         <v>31</v>
       </c>
-      <c r="J929" s="521">
+      <c r="J929" s="520">
         <v>2016</v>
       </c>
-      <c r="K929" s="522" t="s">
+      <c r="K929" s="521" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="930" spans="4:11">
-      <c r="D930" s="523" t="s">
+      <c r="D930" s="522" t="s">
         <v>229</v>
       </c>
-      <c r="E930" s="510">
+      <c r="E930" s="509">
         <v>22871.03</v>
       </c>
-      <c r="F930" s="510">
+      <c r="F930" s="509">
         <v>27276.01</v>
       </c>
-      <c r="G930" s="510">
+      <c r="G930" s="509">
         <v>30634.65</v>
       </c>
-      <c r="H930" s="510">
+      <c r="H930" s="509">
         <v>35418.620000000003</v>
       </c>
-      <c r="I930" s="510">
+      <c r="I930" s="509">
         <v>38716.26</v>
       </c>
-      <c r="J930" s="510">
+      <c r="J930" s="509">
         <v>41961.69</v>
       </c>
-      <c r="K930" s="524">
+      <c r="K930" s="523">
         <v>45751.91</v>
       </c>
     </row>
     <row r="931" spans="4:11">
-      <c r="D931" s="431" t="s">
+      <c r="D931" s="430" t="s">
         <v>588</v>
       </c>
-      <c r="E931" s="510">
+      <c r="E931" s="509">
         <v>13408.91</v>
       </c>
-      <c r="F931" s="510">
+      <c r="F931" s="509">
         <v>17205.349999999999</v>
       </c>
-      <c r="G931" s="510">
+      <c r="G931" s="509">
         <v>20703.66</v>
       </c>
-      <c r="H931" s="510">
+      <c r="H931" s="509">
         <v>25161.96</v>
       </c>
-      <c r="I931" s="510">
+      <c r="I931" s="509">
         <v>28615.59</v>
       </c>
-      <c r="J931" s="510">
+      <c r="J931" s="509">
         <v>32408.38</v>
       </c>
-      <c r="K931" s="524">
+      <c r="K931" s="523">
         <v>36155.279999999999</v>
       </c>
     </row>
     <row r="932" spans="4:11">
-      <c r="D932" s="431" t="s">
+      <c r="D932" s="430" t="s">
         <v>589</v>
       </c>
-      <c r="E932" s="510">
-        <v>0</v>
-      </c>
-      <c r="F932" s="510">
-        <v>0</v>
-      </c>
-      <c r="G932" s="510">
+      <c r="E932" s="509">
+        <v>0</v>
+      </c>
+      <c r="F932" s="509">
+        <v>0</v>
+      </c>
+      <c r="G932" s="509">
         <v>3098.89</v>
       </c>
-      <c r="H932" s="510">
+      <c r="H932" s="509">
         <v>3110.75</v>
       </c>
-      <c r="I932" s="510">
+      <c r="I932" s="509">
         <v>2948.9</v>
       </c>
-      <c r="J932" s="510">
+      <c r="J932" s="509">
         <v>2470.1999999999998</v>
       </c>
-      <c r="K932" s="524">
+      <c r="K932" s="523">
         <v>2600.48</v>
       </c>
     </row>
     <row r="933" spans="4:11">
-      <c r="D933" s="431" t="s">
+      <c r="D933" s="430" t="s">
         <v>590</v>
       </c>
-      <c r="E933" s="510">
-        <v>0</v>
-      </c>
-      <c r="F933" s="510">
-        <v>0</v>
-      </c>
-      <c r="G933" s="510">
+      <c r="E933" s="509">
+        <v>0</v>
+      </c>
+      <c r="F933" s="509">
+        <v>0</v>
+      </c>
+      <c r="G933" s="509">
         <v>3169.65</v>
       </c>
-      <c r="H933" s="510">
+      <c r="H933" s="509">
         <v>2950.91</v>
       </c>
-      <c r="I933" s="510">
+      <c r="I933" s="509">
         <v>2823.47</v>
       </c>
-      <c r="J933" s="510">
+      <c r="J933" s="509">
         <v>2562.7199999999998</v>
       </c>
-      <c r="K933" s="524">
+      <c r="K933" s="523">
         <v>2298.81</v>
       </c>
     </row>
     <row r="934" spans="4:11">
-      <c r="D934" s="431" t="s">
+      <c r="D934" s="430" t="s">
         <v>591</v>
       </c>
-      <c r="E934" s="510">
+      <c r="E934" s="509">
         <v>7013.2</v>
       </c>
-      <c r="F934" s="510">
+      <c r="F934" s="509">
         <v>6999.31</v>
       </c>
-      <c r="G934" s="510">
-        <v>0</v>
-      </c>
-      <c r="H934" s="510">
-        <v>0</v>
-      </c>
-      <c r="I934" s="510">
-        <v>0</v>
-      </c>
-      <c r="J934" s="510">
+      <c r="G934" s="509">
+        <v>0</v>
+      </c>
+      <c r="H934" s="509">
+        <v>0</v>
+      </c>
+      <c r="I934" s="509">
+        <v>0</v>
+      </c>
+      <c r="J934" s="509">
         <v>4520.3900000000003</v>
       </c>
-      <c r="K934" s="524">
+      <c r="K934" s="523">
         <v>4697.34</v>
       </c>
     </row>
     <row r="935" spans="4:11">
-      <c r="D935" s="432" t="s">
+      <c r="D935" s="431" t="s">
         <v>592</v>
       </c>
-      <c r="E935" s="517">
+      <c r="E935" s="516">
         <v>2448.92</v>
       </c>
-      <c r="F935" s="517">
+      <c r="F935" s="516">
         <v>3071.35</v>
       </c>
-      <c r="G935" s="517">
+      <c r="G935" s="516">
         <v>3662.45</v>
       </c>
-      <c r="H935" s="517">
+      <c r="H935" s="516">
         <v>4194.99</v>
       </c>
-      <c r="I935" s="517">
+      <c r="I935" s="516">
         <v>4328.3</v>
       </c>
-      <c r="J935" s="517">
+      <c r="J935" s="516">
         <v>4520.3900000000003</v>
       </c>
-      <c r="K935" s="525">
+      <c r="K935" s="524">
         <v>4697.34</v>
       </c>
     </row>
     <row r="936" spans="4:11">
-      <c r="D936" s="428"/>
-      <c r="E936" s="428"/>
-      <c r="F936" s="428"/>
-      <c r="G936" s="428"/>
-      <c r="H936" s="428"/>
-      <c r="I936" s="428"/>
-      <c r="J936" s="428"/>
-      <c r="K936" s="428"/>
+      <c r="D936" s="427"/>
+      <c r="E936" s="427"/>
+      <c r="F936" s="427"/>
+      <c r="G936" s="427"/>
+      <c r="H936" s="427"/>
+      <c r="I936" s="427"/>
+      <c r="J936" s="427"/>
+      <c r="K936" s="427"/>
     </row>
     <row r="937" spans="4:11">
-      <c r="D937" s="428"/>
-      <c r="E937" s="428"/>
-      <c r="F937" s="428"/>
-      <c r="G937" s="428"/>
-      <c r="H937" s="428"/>
-      <c r="I937" s="428"/>
-      <c r="J937" s="428"/>
-      <c r="K937" s="428"/>
+      <c r="D937" s="427"/>
+      <c r="E937" s="427"/>
+      <c r="F937" s="427"/>
+      <c r="G937" s="427"/>
+      <c r="H937" s="427"/>
+      <c r="I937" s="427"/>
+      <c r="J937" s="427"/>
+      <c r="K937" s="427"/>
     </row>
     <row r="938" spans="4:11">
-      <c r="D938" s="486" t="s">
+      <c r="D938" s="485" t="s">
         <v>472</v>
       </c>
-      <c r="E938" s="521">
+      <c r="E938" s="520">
         <v>2012</v>
       </c>
-      <c r="F938" s="521">
+      <c r="F938" s="520">
         <v>2013</v>
       </c>
-      <c r="G938" s="521">
+      <c r="G938" s="520">
         <v>2014</v>
       </c>
-      <c r="H938" s="521">
+      <c r="H938" s="520">
         <v>2015</v>
       </c>
-      <c r="I938" s="521" t="s">
+      <c r="I938" s="520" t="s">
         <v>31</v>
       </c>
-      <c r="J938" s="521">
+      <c r="J938" s="520">
         <v>2016</v>
       </c>
-      <c r="K938" s="522" t="s">
+      <c r="K938" s="521" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="939" spans="4:11">
-      <c r="D939" s="431" t="s">
+      <c r="D939" s="430" t="s">
         <v>588</v>
       </c>
-      <c r="E939" s="526">
+      <c r="E939" s="525">
         <v>0.58628360856507122</v>
       </c>
-      <c r="F939" s="526">
+      <c r="F939" s="525">
         <v>0.63078690761588663</v>
       </c>
-      <c r="G939" s="526">
+      <c r="G939" s="525">
         <v>0.67582492373831593</v>
       </c>
-      <c r="H939" s="526">
+      <c r="H939" s="525">
         <v>0.71041615963580729</v>
       </c>
-      <c r="I939" s="526">
+      <c r="I939" s="525">
         <v>0.73911038927830319</v>
       </c>
-      <c r="J939" s="526">
+      <c r="J939" s="525">
         <v>0.77233257287778445</v>
       </c>
-      <c r="K939" s="527">
+      <c r="K939" s="526">
         <v>0.79024635255664732</v>
       </c>
     </row>
     <row r="940" spans="4:11">
-      <c r="D940" s="431" t="s">
+      <c r="D940" s="430" t="s">
         <v>589</v>
       </c>
-      <c r="E940" s="526">
-        <v>0</v>
-      </c>
-      <c r="F940" s="526">
-        <v>0</v>
-      </c>
-      <c r="G940" s="526">
+      <c r="E940" s="525">
+        <v>0</v>
+      </c>
+      <c r="F940" s="525">
+        <v>0</v>
+      </c>
+      <c r="G940" s="525">
         <v>0.10115637031923001</v>
       </c>
-      <c r="H940" s="526">
+      <c r="H940" s="525">
         <v>8.782809719859215E-2</v>
       </c>
-      <c r="I940" s="526">
+      <c r="I940" s="525">
         <v>7.6166964474357807E-2</v>
       </c>
-      <c r="J940" s="526">
+      <c r="J940" s="525">
         <v>5.8867981723329056E-2</v>
       </c>
-      <c r="K940" s="527">
+      <c r="K940" s="526">
         <v>5.6838719957265166E-2</v>
       </c>
     </row>
     <row r="941" spans="4:11">
-      <c r="D941" s="431" t="s">
+      <c r="D941" s="430" t="s">
         <v>590</v>
       </c>
-      <c r="E941" s="526">
-        <v>0</v>
-      </c>
-      <c r="F941" s="526">
-        <v>0</v>
-      </c>
-      <c r="G941" s="526">
+      <c r="E941" s="525">
+        <v>0</v>
+      </c>
+      <c r="F941" s="525">
+        <v>0</v>
+      </c>
+      <c r="G941" s="525">
         <v>0.10346617310790232</v>
       </c>
-      <c r="H941" s="526">
+      <c r="H941" s="525">
         <v>8.3315216685460908E-2</v>
       </c>
-      <c r="I941" s="526">
+      <c r="I941" s="525">
         <v>7.292724038943843E-2</v>
       </c>
-      <c r="J941" s="526">
+      <c r="J941" s="525">
         <v>6.1072850021054913E-2</v>
       </c>
-      <c r="K941" s="527">
+      <c r="K941" s="526">
         <v>5.0245115449824934E-2</v>
       </c>
     </row>
     <row r="942" spans="4:11">
-      <c r="D942" s="431" t="s">
+      <c r="D942" s="430" t="s">
         <v>591</v>
       </c>
-      <c r="E942" s="526">
+      <c r="E942" s="525">
         <v>0.30664119630816805</v>
       </c>
-      <c r="F942" s="526">
+      <c r="F942" s="525">
         <v>0.2566104793186394</v>
       </c>
-      <c r="G942" s="526">
-        <v>0</v>
-      </c>
-      <c r="H942" s="526">
-        <v>0</v>
-      </c>
-      <c r="I942" s="526">
-        <v>0</v>
-      </c>
-      <c r="J942" s="526">
+      <c r="G942" s="525">
+        <v>0</v>
+      </c>
+      <c r="H942" s="525">
+        <v>0</v>
+      </c>
+      <c r="I942" s="525">
+        <v>0</v>
+      </c>
+      <c r="J942" s="525">
         <v>0.10772659537783154</v>
       </c>
-      <c r="K942" s="527">
+      <c r="K942" s="526">
         <v>0.10266981203626252</v>
       </c>
     </row>
     <row r="943" spans="4:11">
-      <c r="D943" s="432" t="s">
+      <c r="D943" s="431" t="s">
         <v>592</v>
       </c>
-      <c r="E943" s="528">
+      <c r="E943" s="527">
         <v>0.10707519512676081</v>
       </c>
-      <c r="F943" s="528">
+      <c r="F943" s="527">
         <v>0.11260261306547402</v>
       </c>
-      <c r="G943" s="528">
+      <c r="G943" s="527">
         <v>0.11955253283455171</v>
       </c>
-      <c r="H943" s="528">
+      <c r="H943" s="527">
         <v>0.11844024414277009</v>
       </c>
-      <c r="I943" s="528">
+      <c r="I943" s="527">
         <v>0.11179540585790053</v>
       </c>
-      <c r="J943" s="528">
+      <c r="J943" s="527">
         <v>0.10772659537783154</v>
       </c>
-      <c r="K943" s="529">
+      <c r="K943" s="528">
         <v>0.10266981203626252</v>
       </c>
     </row>
@@ -60960,783 +60310,783 @@
       </c>
     </row>
     <row r="950" spans="2:14">
-      <c r="D950" s="530">
+      <c r="D950" s="529">
         <v>2014</v>
       </c>
-      <c r="E950" s="530" t="s">
+      <c r="E950" s="529" t="s">
         <v>373</v>
       </c>
-      <c r="F950" s="530">
+      <c r="F950" s="529">
         <v>2015</v>
       </c>
-      <c r="G950" s="530" t="s">
+      <c r="G950" s="529" t="s">
         <v>31</v>
       </c>
-      <c r="H950" s="530">
+      <c r="H950" s="529">
         <v>2016</v>
       </c>
-      <c r="I950" s="530" t="s">
+      <c r="I950" s="529" t="s">
         <v>407</v>
       </c>
-      <c r="J950" s="530" t="s">
+      <c r="J950" s="529" t="s">
         <v>32</v>
       </c>
-      <c r="K950" s="531"/>
-      <c r="L950" s="531"/>
-      <c r="M950" s="531"/>
-      <c r="N950" s="531"/>
+      <c r="K950" s="530"/>
+      <c r="L950" s="530"/>
+      <c r="M950" s="530"/>
+      <c r="N950" s="530"/>
     </row>
     <row r="951" spans="2:14">
-      <c r="D951" s="532">
+      <c r="D951" s="531">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="E951" s="532">
+      <c r="E951" s="531">
         <v>2.53E-2</v>
       </c>
-      <c r="F951" s="532">
+      <c r="F951" s="531">
         <v>2.47E-2</v>
       </c>
-      <c r="G951" s="533">
+      <c r="G951" s="532">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="H951" s="533">
+      <c r="H951" s="532">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="I951" s="533">
+      <c r="I951" s="532">
         <v>2.12E-2</v>
       </c>
-      <c r="J951" s="534">
+      <c r="J951" s="533">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="K951" s="531"/>
-      <c r="L951" s="531"/>
-      <c r="M951" s="531"/>
-      <c r="N951" s="531"/>
+      <c r="K951" s="530"/>
+      <c r="L951" s="530"/>
+      <c r="M951" s="530"/>
+      <c r="N951" s="530"/>
     </row>
     <row r="952" spans="2:14">
-      <c r="D952" s="531"/>
-      <c r="E952" s="531"/>
-      <c r="F952" s="531"/>
-      <c r="G952" s="531"/>
-      <c r="H952" s="531"/>
-      <c r="I952" s="531"/>
-      <c r="J952" s="531"/>
-      <c r="K952" s="531"/>
-      <c r="L952" s="531"/>
-      <c r="M952" s="531"/>
-      <c r="N952" s="531"/>
+      <c r="D952" s="530"/>
+      <c r="E952" s="530"/>
+      <c r="F952" s="530"/>
+      <c r="G952" s="530"/>
+      <c r="H952" s="530"/>
+      <c r="I952" s="530"/>
+      <c r="J952" s="530"/>
+      <c r="K952" s="530"/>
+      <c r="L952" s="530"/>
+      <c r="M952" s="530"/>
+      <c r="N952" s="530"/>
     </row>
     <row r="953" spans="2:14">
-      <c r="D953" s="531"/>
-      <c r="E953" s="531"/>
-      <c r="F953" s="531"/>
-      <c r="G953" s="531"/>
-      <c r="H953" s="531"/>
-      <c r="I953" s="531"/>
-      <c r="J953" s="531"/>
-      <c r="K953" s="531"/>
-      <c r="L953" s="531"/>
-      <c r="M953" s="531"/>
-      <c r="N953" s="531"/>
+      <c r="D953" s="530"/>
+      <c r="E953" s="530"/>
+      <c r="F953" s="530"/>
+      <c r="G953" s="530"/>
+      <c r="H953" s="530"/>
+      <c r="I953" s="530"/>
+      <c r="J953" s="530"/>
+      <c r="K953" s="530"/>
+      <c r="L953" s="530"/>
+      <c r="M953" s="530"/>
+      <c r="N953" s="530"/>
     </row>
     <row r="954" spans="2:14">
-      <c r="D954" s="531"/>
-      <c r="E954" s="531"/>
-      <c r="F954" s="531"/>
-      <c r="G954" s="531"/>
-      <c r="H954" s="531"/>
-      <c r="I954" s="531"/>
-      <c r="J954" s="531"/>
-      <c r="K954" s="531"/>
-      <c r="L954" s="531"/>
-      <c r="M954" s="531"/>
-      <c r="N954" s="531"/>
+      <c r="D954" s="530"/>
+      <c r="E954" s="530"/>
+      <c r="F954" s="530"/>
+      <c r="G954" s="530"/>
+      <c r="H954" s="530"/>
+      <c r="I954" s="530"/>
+      <c r="J954" s="530"/>
+      <c r="K954" s="530"/>
+      <c r="L954" s="530"/>
+      <c r="M954" s="530"/>
+      <c r="N954" s="530"/>
     </row>
     <row r="955" spans="2:14">
-      <c r="D955" s="531"/>
-      <c r="E955" s="535" t="s">
+      <c r="D955" s="530"/>
+      <c r="E955" s="534" t="s">
         <v>373</v>
       </c>
-      <c r="F955" s="535"/>
-      <c r="G955" s="535" t="s">
+      <c r="F955" s="534"/>
+      <c r="G955" s="534" t="s">
         <v>374</v>
       </c>
-      <c r="H955" s="531"/>
-      <c r="I955" s="535" t="s">
+      <c r="H955" s="530"/>
+      <c r="I955" s="534" t="s">
         <v>31</v>
       </c>
-      <c r="J955" s="531"/>
-      <c r="K955" s="535" t="s">
+      <c r="J955" s="530"/>
+      <c r="K955" s="534" t="s">
         <v>375</v>
       </c>
-      <c r="L955" s="535"/>
-      <c r="M955" s="535" t="s">
+      <c r="L955" s="534"/>
+      <c r="M955" s="534" t="s">
         <v>32</v>
       </c>
-      <c r="N955" s="535"/>
+      <c r="N955" s="534"/>
     </row>
     <row r="956" spans="2:14">
-      <c r="D956" s="547" t="s">
+      <c r="D956" s="546" t="s">
         <v>612</v>
       </c>
-      <c r="E956" s="536" t="s">
+      <c r="E956" s="535" t="s">
         <v>594</v>
       </c>
-      <c r="F956" s="536" t="s">
+      <c r="F956" s="535" t="s">
         <v>595</v>
       </c>
-      <c r="G956" s="536" t="s">
+      <c r="G956" s="535" t="s">
         <v>594</v>
       </c>
-      <c r="H956" s="536" t="s">
+      <c r="H956" s="535" t="s">
         <v>595</v>
       </c>
-      <c r="I956" s="537" t="s">
+      <c r="I956" s="536" t="s">
         <v>594</v>
       </c>
-      <c r="J956" s="537" t="s">
+      <c r="J956" s="536" t="s">
         <v>595</v>
       </c>
-      <c r="K956" s="537" t="s">
+      <c r="K956" s="536" t="s">
         <v>594</v>
       </c>
-      <c r="L956" s="537" t="s">
+      <c r="L956" s="536" t="s">
         <v>595</v>
       </c>
-      <c r="M956" s="537" t="s">
+      <c r="M956" s="536" t="s">
         <v>594</v>
       </c>
-      <c r="N956" s="537" t="s">
+      <c r="N956" s="536" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="957" spans="2:14">
-      <c r="D957" s="537" t="s">
+      <c r="D957" s="536" t="s">
         <v>596</v>
       </c>
-      <c r="E957" s="536">
+      <c r="E957" s="535">
         <v>201224.88</v>
       </c>
-      <c r="F957" s="538">
+      <c r="F957" s="537">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="G957" s="536">
+      <c r="G957" s="535">
         <v>205504.89</v>
       </c>
-      <c r="H957" s="538">
+      <c r="H957" s="537">
         <v>4.24E-2</v>
       </c>
-      <c r="I957" s="539">
+      <c r="I957" s="538">
         <v>212827.49</v>
       </c>
-      <c r="J957" s="538">
+      <c r="J957" s="537">
         <v>3.73E-2</v>
       </c>
-      <c r="K957" s="536">
+      <c r="K957" s="535">
         <v>218415.27</v>
       </c>
-      <c r="L957" s="538">
+      <c r="L957" s="537">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="M957" s="536">
+      <c r="M957" s="535">
         <v>233972.5</v>
       </c>
-      <c r="N957" s="540">
+      <c r="N957" s="539">
         <v>3.61E-2</v>
       </c>
     </row>
     <row r="958" spans="2:14">
-      <c r="D958" s="537" t="s">
+      <c r="D958" s="536" t="s">
         <v>597</v>
       </c>
-      <c r="E958" s="537">
+      <c r="E958" s="536">
         <v>113346.92</v>
       </c>
-      <c r="F958" s="541">
+      <c r="F958" s="540">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="G958" s="537">
+      <c r="G958" s="536">
         <v>116073.27</v>
       </c>
-      <c r="H958" s="541">
+      <c r="H958" s="540">
         <v>5.3100000000000001E-2</v>
       </c>
-      <c r="I958" s="542">
+      <c r="I958" s="541">
         <v>122860.73</v>
       </c>
-      <c r="J958" s="541">
+      <c r="J958" s="540">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="K958" s="543">
+      <c r="K958" s="542">
         <v>126586.86</v>
       </c>
-      <c r="L958" s="538">
+      <c r="L958" s="537">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="M958" s="536">
+      <c r="M958" s="535">
         <v>135855.51999999999</v>
       </c>
-      <c r="N958" s="540">
+      <c r="N958" s="539">
         <v>4.1299999999999996E-2</v>
       </c>
     </row>
     <row r="959" spans="2:14">
-      <c r="D959" s="544" t="s">
+      <c r="D959" s="543" t="s">
         <v>598</v>
       </c>
-      <c r="E959" s="537">
+      <c r="E959" s="536">
         <v>70299.13</v>
       </c>
-      <c r="F959" s="541">
+      <c r="F959" s="540">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="G959" s="537">
+      <c r="G959" s="536">
         <v>70604.95</v>
       </c>
-      <c r="H959" s="541">
+      <c r="H959" s="540">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="I959" s="542">
+      <c r="I959" s="541">
         <v>71497.59</v>
       </c>
-      <c r="J959" s="541">
+      <c r="J959" s="540">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="K959" s="543">
+      <c r="K959" s="542">
         <v>70770.09</v>
       </c>
-      <c r="L959" s="538">
+      <c r="L959" s="537">
         <v>4.58E-2</v>
       </c>
-      <c r="M959" s="536">
+      <c r="M959" s="535">
         <v>74641.899999999994</v>
       </c>
-      <c r="N959" s="540">
+      <c r="N959" s="539">
         <v>4.36E-2</v>
       </c>
     </row>
     <row r="960" spans="2:14">
-      <c r="D960" s="544" t="s">
+      <c r="D960" s="543" t="s">
         <v>599</v>
       </c>
-      <c r="E960" s="537">
+      <c r="E960" s="536">
         <v>31130.81</v>
       </c>
-      <c r="F960" s="541">
+      <c r="F960" s="540">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="G960" s="537">
+      <c r="G960" s="536">
         <v>32281.24</v>
       </c>
-      <c r="H960" s="541">
+      <c r="H960" s="540">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="I960" s="542">
+      <c r="I960" s="541">
         <v>36258.69</v>
       </c>
-      <c r="J960" s="541">
+      <c r="J960" s="540">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="K960" s="543">
+      <c r="K960" s="542">
         <v>37864.42</v>
       </c>
-      <c r="L960" s="538">
+      <c r="L960" s="537">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="M960" s="536">
+      <c r="M960" s="535">
         <v>43135.98</v>
       </c>
-      <c r="N960" s="540">
+      <c r="N960" s="539">
         <v>4.07E-2</v>
       </c>
     </row>
     <row r="961" spans="4:14">
-      <c r="D961" s="544" t="s">
+      <c r="D961" s="543" t="s">
         <v>571</v>
       </c>
-      <c r="E961" s="537">
+      <c r="E961" s="536">
         <v>3735.25</v>
       </c>
-      <c r="F961" s="541">
+      <c r="F961" s="540">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="G961" s="537">
+      <c r="G961" s="536">
         <v>4321.91</v>
       </c>
-      <c r="H961" s="541">
+      <c r="H961" s="540">
         <v>4.53E-2</v>
       </c>
-      <c r="I961" s="542">
+      <c r="I961" s="541">
         <v>5689.68</v>
       </c>
-      <c r="J961" s="541">
+      <c r="J961" s="540">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="K961" s="543">
+      <c r="K961" s="542">
         <v>6780.19</v>
       </c>
-      <c r="L961" s="538">
+      <c r="L961" s="537">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="M961" s="536">
+      <c r="M961" s="535">
         <v>5007.29</v>
       </c>
-      <c r="N961" s="540">
+      <c r="N961" s="539">
         <v>3.5299999999999998E-2</v>
       </c>
     </row>
     <row r="962" spans="4:14">
-      <c r="D962" s="544" t="s">
+      <c r="D962" s="543" t="s">
         <v>600</v>
       </c>
-      <c r="E962" s="537">
+      <c r="E962" s="536">
         <v>8181.73</v>
       </c>
-      <c r="F962" s="541">
+      <c r="F962" s="540">
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="G962" s="537">
+      <c r="G962" s="536">
         <v>8865.17</v>
       </c>
-      <c r="H962" s="541">
+      <c r="H962" s="540">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="I962" s="542">
+      <c r="I962" s="541">
         <v>9414.77</v>
       </c>
-      <c r="J962" s="541">
+      <c r="J962" s="540">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="K962" s="543">
+      <c r="K962" s="542">
         <v>11172.16</v>
       </c>
-      <c r="L962" s="538">
+      <c r="L962" s="537">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="M962" s="536">
+      <c r="M962" s="535">
         <v>13070.35</v>
       </c>
-      <c r="N962" s="540">
+      <c r="N962" s="539">
         <v>3.2099999999999997E-2</v>
       </c>
     </row>
     <row r="963" spans="4:14">
-      <c r="D963" s="537" t="s">
+      <c r="D963" s="536" t="s">
         <v>601</v>
       </c>
-      <c r="E963" s="537">
+      <c r="E963" s="536">
         <v>41693.49</v>
       </c>
-      <c r="F963" s="541">
+      <c r="F963" s="540">
         <v>0.04</v>
       </c>
-      <c r="G963" s="537">
+      <c r="G963" s="536">
         <v>43332.02</v>
       </c>
-      <c r="H963" s="541">
+      <c r="H963" s="540">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="I963" s="542">
+      <c r="I963" s="541">
         <v>47819.23</v>
       </c>
-      <c r="J963" s="541">
+      <c r="J963" s="540">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="K963" s="543">
+      <c r="K963" s="542">
         <v>48555.83</v>
       </c>
-      <c r="L963" s="538">
+      <c r="L963" s="537">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="M963" s="536">
+      <c r="M963" s="535">
         <v>51138.07</v>
       </c>
-      <c r="N963" s="540">
+      <c r="N963" s="539">
         <v>3.5900000000000001E-2</v>
       </c>
     </row>
     <row r="964" spans="4:14">
-      <c r="D964" s="537" t="s">
+      <c r="D964" s="536" t="s">
         <v>542</v>
       </c>
-      <c r="E964" s="537">
+      <c r="E964" s="536">
         <v>33021.24</v>
       </c>
-      <c r="F964" s="541">
+      <c r="F964" s="540">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G964" s="537">
+      <c r="G964" s="536">
         <v>31615.62</v>
       </c>
-      <c r="H964" s="541">
+      <c r="H964" s="540">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="I964" s="542">
+      <c r="I964" s="541">
         <v>28318.48</v>
       </c>
-      <c r="J964" s="541">
+      <c r="J964" s="540">
         <v>1.54E-2</v>
       </c>
-      <c r="K964" s="543">
+      <c r="K964" s="542">
         <v>29150.05</v>
       </c>
-      <c r="L964" s="538">
+      <c r="L964" s="537">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="M964" s="536">
+      <c r="M964" s="535">
         <v>30498.09</v>
       </c>
-      <c r="N964" s="540">
+      <c r="N964" s="539">
         <v>1.52E-2</v>
       </c>
     </row>
     <row r="965" spans="4:14">
-      <c r="D965" s="537" t="s">
+      <c r="D965" s="536" t="s">
         <v>602</v>
       </c>
-      <c r="E965" s="537">
+      <c r="E965" s="536">
         <v>13163.23</v>
       </c>
-      <c r="F965" s="541">
+      <c r="F965" s="540">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="G965" s="537">
+      <c r="G965" s="536">
         <v>14483.98</v>
       </c>
-      <c r="H965" s="541">
+      <c r="H965" s="540">
         <v>2.52E-2</v>
       </c>
-      <c r="I965" s="542">
+      <c r="I965" s="541">
         <v>13829.05</v>
       </c>
-      <c r="J965" s="541">
+      <c r="J965" s="540">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="K965" s="543">
+      <c r="K965" s="542">
         <v>14122.53</v>
       </c>
-      <c r="L965" s="538">
+      <c r="L965" s="537">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="M965" s="536">
+      <c r="M965" s="535">
         <v>16480.82</v>
       </c>
-      <c r="N965" s="540">
+      <c r="N965" s="539">
         <v>3.2300000000000002E-2</v>
       </c>
     </row>
     <row r="966" spans="4:14">
-      <c r="D966" s="545" t="s">
+      <c r="D966" s="544" t="s">
         <v>603</v>
       </c>
-      <c r="E966" s="537">
+      <c r="E966" s="536">
         <v>182775.3</v>
       </c>
-      <c r="F966" s="541">
+      <c r="F966" s="540">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="G966" s="537">
+      <c r="G966" s="536">
         <v>187590.7</v>
       </c>
-      <c r="H966" s="541">
+      <c r="H966" s="540">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="I966" s="542">
+      <c r="I966" s="541">
         <v>195565.19</v>
       </c>
-      <c r="J966" s="541">
+      <c r="J966" s="540">
         <v>1.66E-2</v>
       </c>
-      <c r="K966" s="543">
+      <c r="K966" s="542">
         <v>199962.02</v>
       </c>
-      <c r="L966" s="546">
+      <c r="L966" s="545">
         <v>1.6E-2</v>
       </c>
-      <c r="M966" s="536">
+      <c r="M966" s="535">
         <v>213179.29</v>
       </c>
-      <c r="N966" s="540">
+      <c r="N966" s="539">
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
     <row r="967" spans="4:14">
-      <c r="D967" s="537" t="s">
+      <c r="D967" s="536" t="s">
         <v>604</v>
       </c>
-      <c r="E967" s="537">
+      <c r="E967" s="536">
         <v>152016.35999999999</v>
       </c>
-      <c r="F967" s="541">
+      <c r="F967" s="540">
         <v>2.0199999999999999E-2</v>
       </c>
-      <c r="G967" s="537">
+      <c r="G967" s="536">
         <v>155792.71</v>
       </c>
-      <c r="H967" s="541">
+      <c r="H967" s="540">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="I967" s="542">
+      <c r="I967" s="541">
         <v>163735.24</v>
       </c>
-      <c r="J967" s="541">
+      <c r="J967" s="540">
         <v>1.6E-2</v>
       </c>
-      <c r="K967" s="543">
+      <c r="K967" s="542">
         <v>168785.31</v>
       </c>
-      <c r="L967" s="538">
+      <c r="L967" s="537">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="M967" s="536">
+      <c r="M967" s="535">
         <v>179522.42</v>
       </c>
-      <c r="N967" s="540">
+      <c r="N967" s="539">
         <v>1.43E-2</v>
       </c>
     </row>
     <row r="968" spans="4:14">
-      <c r="D968" s="544" t="s">
+      <c r="D968" s="543" t="s">
         <v>605</v>
       </c>
-      <c r="E968" s="537">
+      <c r="E968" s="536">
         <v>36155.1</v>
       </c>
-      <c r="F968" s="541">
+      <c r="F968" s="540">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G968" s="537">
+      <c r="G968" s="536">
         <v>36550.43</v>
       </c>
-      <c r="H968" s="541">
+      <c r="H968" s="540">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="I968" s="542">
+      <c r="I968" s="541">
         <v>36539.599999999999</v>
       </c>
-      <c r="J968" s="541">
+      <c r="J968" s="540">
         <v>2.5899999999999999E-2</v>
       </c>
-      <c r="K968" s="543">
+      <c r="K968" s="542">
         <v>36740.17</v>
       </c>
-      <c r="L968" s="538">
+      <c r="L968" s="537">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="M968" s="536">
+      <c r="M968" s="535">
         <v>39488.89</v>
       </c>
-      <c r="N968" s="540">
+      <c r="N968" s="539">
         <v>2.2700000000000001E-2</v>
       </c>
     </row>
     <row r="969" spans="4:14">
-      <c r="D969" s="544" t="s">
+      <c r="D969" s="543" t="s">
         <v>606</v>
       </c>
-      <c r="E969" s="537">
+      <c r="E969" s="536">
         <v>38823.74</v>
       </c>
-      <c r="F969" s="541">
+      <c r="F969" s="540">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="G969" s="537">
+      <c r="G969" s="536">
         <v>41145.68</v>
       </c>
-      <c r="H969" s="541">
+      <c r="H969" s="540">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="I969" s="542">
+      <c r="I969" s="541">
         <v>44690.17</v>
       </c>
-      <c r="J969" s="541">
+      <c r="J969" s="540">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="K969" s="543">
+      <c r="K969" s="542">
         <v>48076.07</v>
       </c>
-      <c r="L969" s="538">
+      <c r="L969" s="537">
         <v>6.6E-3</v>
       </c>
-      <c r="M969" s="536">
+      <c r="M969" s="535">
         <v>51808.72</v>
       </c>
-      <c r="N969" s="540">
+      <c r="N969" s="539">
         <v>6.6E-3</v>
       </c>
     </row>
     <row r="970" spans="4:14">
-      <c r="D970" s="544" t="s">
+      <c r="D970" s="543" t="s">
         <v>607</v>
       </c>
-      <c r="E970" s="537">
+      <c r="E970" s="536">
         <v>40437.96</v>
       </c>
-      <c r="F970" s="541">
+      <c r="F970" s="540">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="G970" s="537">
+      <c r="G970" s="536">
         <v>40741.96</v>
       </c>
-      <c r="H970" s="541">
+      <c r="H970" s="540">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="I970" s="542">
+      <c r="I970" s="541">
         <v>42378.29</v>
       </c>
-      <c r="J970" s="541">
+      <c r="J970" s="540">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="K970" s="543">
+      <c r="K970" s="542">
         <v>42632.88</v>
       </c>
-      <c r="L970" s="538">
+      <c r="L970" s="537">
         <v>2.69E-2</v>
       </c>
-      <c r="M970" s="536">
+      <c r="M970" s="535">
         <v>44450.58</v>
       </c>
-      <c r="N970" s="540">
+      <c r="N970" s="539">
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
     <row r="971" spans="4:14">
-      <c r="D971" s="544" t="s">
+      <c r="D971" s="543" t="s">
         <v>608</v>
       </c>
-      <c r="E971" s="537">
+      <c r="E971" s="536">
         <v>30820.1</v>
       </c>
-      <c r="F971" s="541">
+      <c r="F971" s="540">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="G971" s="537">
+      <c r="G971" s="536">
         <v>31314.45</v>
       </c>
-      <c r="H971" s="541">
+      <c r="H971" s="540">
         <v>3.3E-3</v>
       </c>
-      <c r="I971" s="542">
+      <c r="I971" s="541">
         <v>34273.879999999997</v>
       </c>
-      <c r="J971" s="541">
+      <c r="J971" s="540">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K971" s="543">
+      <c r="K971" s="542">
         <v>34405.81</v>
       </c>
-      <c r="L971" s="538">
+      <c r="L971" s="537">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="M971" s="536">
+      <c r="M971" s="535">
         <v>36530.19</v>
       </c>
-      <c r="N971" s="540">
+      <c r="N971" s="539">
         <v>3.9000000000000003E-3</v>
       </c>
     </row>
     <row r="972" spans="4:14">
-      <c r="D972" s="544" t="s">
+      <c r="D972" s="543" t="s">
         <v>600</v>
       </c>
-      <c r="E972" s="537">
+      <c r="E972" s="536">
         <v>5779.46</v>
       </c>
-      <c r="F972" s="541">
+      <c r="F972" s="540">
         <v>1.67E-2</v>
       </c>
-      <c r="G972" s="537">
+      <c r="G972" s="536">
         <v>6040.19</v>
       </c>
-      <c r="H972" s="541">
+      <c r="H972" s="540">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I972" s="542">
+      <c r="I972" s="541">
         <v>5853.3</v>
       </c>
-      <c r="J972" s="541">
+      <c r="J972" s="540">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="K972" s="543">
+      <c r="K972" s="542">
         <v>6930.38</v>
       </c>
-      <c r="L972" s="538">
+      <c r="L972" s="537">
         <v>1.4E-2</v>
       </c>
-      <c r="M972" s="536">
+      <c r="M972" s="535">
         <v>7244.04</v>
       </c>
-      <c r="N972" s="540">
+      <c r="N972" s="539">
         <v>1.4499999999999999E-2</v>
       </c>
     </row>
     <row r="973" spans="4:14">
-      <c r="D973" s="537" t="s">
+      <c r="D973" s="536" t="s">
         <v>609</v>
       </c>
-      <c r="E973" s="537">
+      <c r="E973" s="536">
         <v>26570.16</v>
       </c>
-      <c r="F973" s="541">
+      <c r="F973" s="540">
         <v>1.9299999999999998E-2</v>
       </c>
-      <c r="G973" s="537">
+      <c r="G973" s="536">
         <v>27443.39</v>
       </c>
-      <c r="H973" s="541">
+      <c r="H973" s="540">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="I973" s="542">
+      <c r="I973" s="541">
         <v>26965.69</v>
       </c>
-      <c r="J973" s="541">
+      <c r="J973" s="540">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="K973" s="543">
+      <c r="K973" s="542">
         <v>25959.74</v>
       </c>
-      <c r="L973" s="538">
+      <c r="L973" s="537">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="M973" s="536">
+      <c r="M973" s="535">
         <v>27432.99</v>
       </c>
-      <c r="N973" s="540">
+      <c r="N973" s="539">
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
     <row r="974" spans="4:14">
-      <c r="D974" s="537" t="s">
+      <c r="D974" s="536" t="s">
         <v>610</v>
       </c>
-      <c r="E974" s="537">
+      <c r="E974" s="536">
         <v>4188.78</v>
       </c>
-      <c r="F974" s="541">
+      <c r="F974" s="540">
         <v>3.7599999999999995E-2</v>
       </c>
-      <c r="G974" s="537">
+      <c r="G974" s="536">
         <v>4354.6000000000004</v>
       </c>
-      <c r="H974" s="541">
+      <c r="H974" s="540">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="I974" s="542">
+      <c r="I974" s="541">
         <v>4864.26</v>
       </c>
-      <c r="J974" s="541">
+      <c r="J974" s="540">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="K974" s="543">
+      <c r="K974" s="542">
         <v>5216.97</v>
       </c>
-      <c r="L974" s="538">
+      <c r="L974" s="537">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="M974" s="536">
+      <c r="M974" s="535">
         <v>6223.88</v>
       </c>
-      <c r="N974" s="540">
+      <c r="N974" s="539">
         <v>3.0699999999999998E-2</v>
       </c>
     </row>
@@ -61751,13 +61101,13 @@
       <c r="D979" s="302" t="s">
         <v>615</v>
       </c>
-      <c r="E979" s="548" t="s">
+      <c r="E979" s="547" t="s">
         <v>616</v>
       </c>
-      <c r="F979" s="548" t="s">
+      <c r="F979" s="547" t="s">
         <v>617</v>
       </c>
-      <c r="G979" s="549" t="s">
+      <c r="G979" s="548" t="s">
         <v>618</v>
       </c>
       <c r="H979" s="301" t="s">
@@ -61765,19 +61115,19 @@
       </c>
     </row>
     <row r="980" spans="2:8">
-      <c r="D980" s="550" t="s">
+      <c r="D980" s="549" t="s">
         <v>620</v>
       </c>
-      <c r="E980" s="551">
+      <c r="E980" s="550">
         <v>37</v>
       </c>
-      <c r="F980" s="551">
+      <c r="F980" s="550">
         <v>23</v>
       </c>
-      <c r="G980" s="551">
+      <c r="G980" s="550">
         <v>14</v>
       </c>
-      <c r="H980" s="552">
+      <c r="H980" s="551">
         <v>14</v>
       </c>
     </row>
@@ -61799,33 +61149,33 @@
       <c r="D983" s="299" t="s">
         <v>615</v>
       </c>
-      <c r="E983" s="549" t="s">
+      <c r="E983" s="548" t="s">
         <v>621</v>
       </c>
-      <c r="F983" s="549" t="s">
+      <c r="F983" s="548" t="s">
         <v>622</v>
       </c>
-      <c r="G983" s="553" t="s">
+      <c r="G983" s="552" t="s">
         <v>623</v>
       </c>
-      <c r="H983" s="553" t="s">
+      <c r="H983" s="552" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="984" spans="2:8">
-      <c r="D984" s="554" t="s">
+      <c r="D984" s="553" t="s">
         <v>625</v>
       </c>
-      <c r="E984" s="555">
-        <v>0</v>
-      </c>
-      <c r="F984" s="555">
-        <v>0</v>
-      </c>
-      <c r="G984" s="556">
+      <c r="E984" s="554">
+        <v>0</v>
+      </c>
+      <c r="F984" s="554">
+        <v>0</v>
+      </c>
+      <c r="G984" s="555">
         <v>14</v>
       </c>
-      <c r="H984" s="556">
+      <c r="H984" s="555">
         <v>0</v>
       </c>
     </row>
@@ -61833,16 +61183,16 @@
       <c r="D985" s="304" t="s">
         <v>626</v>
       </c>
-      <c r="E985" s="557">
-        <v>0</v>
-      </c>
-      <c r="F985" s="557">
-        <v>0</v>
-      </c>
-      <c r="G985" s="558">
+      <c r="E985" s="556">
+        <v>0</v>
+      </c>
+      <c r="F985" s="556">
+        <v>0</v>
+      </c>
+      <c r="G985" s="557">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H985" s="558">
+      <c r="H985" s="557">
         <v>0</v>
       </c>
     </row>
